--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="206">
   <si>
     <t>Center</t>
   </si>
@@ -45,9 +45,6 @@
     <t>CN</t>
   </si>
   <si>
-    <t>Scene Laboratory</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>实验室</t>
-  </si>
-  <si>
-    <t>Scene World</t>
   </si>
   <si>
     <t>Карта.
@@ -167,9 +161,6 @@
     <t xml:space="preserve">Да да. Очень смешно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
   </si>
   <si>
-    <t>Scene Inessa's room</t>
-  </si>
-  <si>
     <t>Ну раз папенька просит, загляну в его книгу.</t>
   </si>
   <si>
@@ -350,12 +341,6 @@
     <t>Давай проверим твои ответы.</t>
   </si>
   <si>
-    <t>Exam</t>
-  </si>
-  <si>
-    <t>Info book</t>
-  </si>
-  <si>
     <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу она то легко сдаст экзамен.</t>
   </si>
   <si>
@@ -530,12 +515,6 @@
     <t>Не тупить и бежать по лестнице.</t>
   </si>
   <si>
-    <t>Screen Black</t>
-  </si>
-  <si>
-    <t>Scene Town Portal</t>
-  </si>
-  <si>
     <t>Несясь по улицам к порталу, я краем глаза заметила, что некоторые камни из дороги исчезли. Может они тоже телепортировались?</t>
   </si>
   <si>
@@ -639,6 +618,30 @@
   </si>
   <si>
     <t>И что же ты будешь делать?</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>InessaRoom</t>
+  </si>
+  <si>
+    <t>PortalOn</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>GGThoughts</t>
+  </si>
+  <si>
+    <t>Narrator</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1267,6 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1609,1690 +1613,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="50.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16" width="9.140625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="50.85546875" style="3" customWidth="1"/>
+    <col min="10" max="17" width="9.140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>1.2</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E61" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
-      <c r="E70" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1.3</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="3" t="s">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="3" t="s">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>1.4</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>106</v>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G83" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G88" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    </row>
+    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G91" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="F92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="F88" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F91" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="F93" s="3" t="s">
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G93" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G95" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F95" s="3" t="s">
+      <c r="F97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="3" t="s">
+      <c r="G98" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G101" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="3" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F101" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>5</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E108" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F109" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F110" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F111" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G109" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G110" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>5.2</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G113" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>6</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="B115" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G116" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F115" s="3" t="s">
+    </row>
+    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F123" s="18"/>
+      <c r="G123" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="F116" s="3" t="s">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E124" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G125" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="3" t="s">
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G127" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F121" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="E123" s="18"/>
-      <c r="F123" s="3" t="s">
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G128" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D124" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F125" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E126" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F127" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="F128" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>7</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
+      <c r="B129" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D131" s="3" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F132" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="E133" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G132" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C136" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>7.1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>7.2</v>
       </c>
@@ -3306,25 +3318,25 @@
           <x14:formula1>
             <xm:f>List!$D$3:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E23:E24 E27 E4:E21 E29:E69 E71:E92 E94 E96:E106 E117:E120 E122:E126 E130:E132 E134:E140</xm:sqref>
+          <xm:sqref>F23:F24 F27 F4:F21 F29:F69 F71:F92 F94 F96:F106 F117:F120 F122:F126 F130:F132 F134:F140</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B92 B94 B96:B106 B117:B120 B122:B123 B126 B130:B132 B134:B140</xm:sqref>
+          <xm:sqref>C4:C92 C94 C96:C106 C117:C120 C122:C123 C126 C130:C132 C134:C140</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C92 C94 C96:C106 C117:C120 C122:C123 C126 C130:C132 C134:C140</xm:sqref>
+          <xm:sqref>D4:D92 D94 D96:D106 D117:D120 D122:D123 D126 D130:D132 D134:D140</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$B$3:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3337,7 +3349,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3375,19 +3387,19 @@
     <row r="2" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3399,10 +3411,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3411,10 +3423,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3426,19 +3438,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3450,13 +3462,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -3468,13 +3480,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3483,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3495,10 +3507,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3507,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3522,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3534,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3580,23 +3592,24 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3604,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,150 +3642,156 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="210">
   <si>
     <t>Center</t>
   </si>
@@ -60,8 +60,583 @@
     <t>实验室</t>
   </si>
   <si>
-    <t>Карта.
-Рассказ о стране.
+    <t>Scene Corridors of the University</t>
+  </si>
+  <si>
+    <t>Inessa</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Cristopher</t>
+  </si>
+  <si>
+    <t>Graugalorafor</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Vargus</t>
+  </si>
+  <si>
+    <t>Tiir</t>
+  </si>
+  <si>
+    <t>Arguz</t>
+  </si>
+  <si>
+    <t>Vacela</t>
+  </si>
+  <si>
+    <t>Morven</t>
+  </si>
+  <si>
+    <t>Hurga</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Кристофер гуляет по ордену с ГГ рассказывая о том, чему служит орден познающих и о прошлых магистрах</t>
+  </si>
+  <si>
+    <t>Кристофер датит ГГ книгу</t>
+  </si>
+  <si>
+    <t>ГГ выдаёт классическое "Па-а-ап! Ну я уже не маленький/ая!"</t>
+  </si>
+  <si>
+    <t>Варгус?! Не появляйся так неожиданно!</t>
+  </si>
+  <si>
+    <t>Не волнуйся. Я не собираюсь делать поблажки своей дочурке. Она будет сдавать экзамен по всей строгости.</t>
+  </si>
+  <si>
+    <t>Ну разумеется. Как же может быть иначе?</t>
+  </si>
+  <si>
+    <t>My child, the day of your exam has come.</t>
+  </si>
+  <si>
+    <t>Ну и заместитель у тебя отец. Как же он мне не нравится.</t>
+  </si>
+  <si>
+    <t>Может характер у него и не очень, но он отлично умеет справляться с бумажками. Без него, я не смог бы заниматься своими исследованиями.</t>
+  </si>
+  <si>
+    <t>Не советую тебе сейчас рассуждать о Варгусе. Тебе надо готовиться! Помнишь? Завтра экзамен.</t>
+  </si>
+  <si>
+    <t>Ага… Интересно, а ему как? Нравится "справляться с бумажками"?</t>
+  </si>
+  <si>
+    <t>Ой! Извините мне уже пора. Надо готовиться к... очень важдому событию.</t>
+  </si>
+  <si>
+    <t>…разве? Какой экзамен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да да. Очень смешно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
+  </si>
+  <si>
+    <t>Ну раз папенька просит, загляну в его книгу.</t>
+  </si>
+  <si>
+    <t>Доброго утра отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
+  </si>
+  <si>
+    <t>Ина! Что за неуважение к традициям?</t>
+  </si>
+  <si>
+    <t>Сегодня состоится экзамен на звание Магистра Ордена Познающих. Экзаменуемый Инесса Кристоферна Манн. Вы готовы к сдаче?</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Gloomy</t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t>Dreaming</t>
+  </si>
+  <si>
+    <t>Helpless</t>
+  </si>
+  <si>
+    <t>Так точно!</t>
+  </si>
+  <si>
+    <t>Сколько всего. Может стоит сделать шпаргалку к завтрашнему экзамену?</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Особенно зная, что принимать будешь ты.</t>
+  </si>
+  <si>
+    <t>Ах да. Признаюсь, я всегда был очень мягок с тобой. Поэтому я принял тяжелое решение и экзамен будет принимать другой архимагистр, а точнее бывший архимагистр.</t>
+  </si>
+  <si>
+    <t>Что?</t>
+  </si>
+  <si>
+    <t>Знакомься. Это первый архимагистр нашего ордена. Сэр Граугалорафор!</t>
+  </si>
+  <si>
+    <t>Простите, что?</t>
+  </si>
+  <si>
+    <t>Череп? Летающий? Говорящий? Отец, что происходит?</t>
+  </si>
+  <si>
+    <t>Отец явно остался доволен произведённым эффектом.</t>
+  </si>
+  <si>
+    <t>ПРИВЕТСТВУЮ СМЕРТНАЯ!!!</t>
+  </si>
+  <si>
+    <t>Вы даже не представляете! Оказывается побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>А он точно сможет принять у меня экзамен? У него всё в порядке с головой?</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Сэр Граугалорафор абсолютно точно знает всё, что нужно для экзамена. Я проверял.</t>
+  </si>
+  <si>
+    <t>За это время его успели похоронить.</t>
+  </si>
+  <si>
+    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год.</t>
+  </si>
+  <si>
+    <t>Вот в моё время все носили нормальные имена: "Граугалорагран", "Дизоаунаминаболь"!</t>
+  </si>
+  <si>
+    <t>Не то что сейчас. Инесса, Кристофер… обрубки какието. Нет величия в ваших именах!</t>
+  </si>
+  <si>
+    <t>Disgust</t>
+  </si>
+  <si>
+    <t>[医][医][医][医][医]</t>
+  </si>
+  <si>
+    <t>Отец? У меня один вопрос. Как ты так легко выговариваешь его имя? Грау-о-ло-ло… Гру-ла-ла-лала-фор… Рау-гала-фил… Тьфу. Язык сломаешь.</t>
+  </si>
+  <si>
+    <t>Мне кажется, что во всём виноват писарь. Он просто не смог правильно записать моё имя.</t>
+  </si>
+  <si>
+    <t>Основатель? В наших старинных свёртках вы записаны по другому. Вас все знают под именем Карлос.</t>
+  </si>
+  <si>
+    <t>Наверное из-за невозможности их записать имена и поменялись.</t>
+  </si>
+  <si>
+    <t>Рад, что вы так быстро поладили.</t>
+  </si>
+  <si>
+    <t>Инесса! Я надеюсь, что ближайшие пару часов ты не покинешь стен ордена и успешно сдашь экзамен.</t>
+  </si>
+  <si>
+    <t>А теперь, я вынужден откланяться. Мне надо срочно идти открывать портал.</t>
+  </si>
+  <si>
+    <t>Sullenly</t>
+  </si>
+  <si>
+    <t>Странно что архимагистр лично занимается открытием портала. Работа не по должности ведь.</t>
+  </si>
+  <si>
+    <t>Ну ладно. К экзамену готов? Вопросы есть?</t>
+  </si>
+  <si>
+    <t>А вот и утро. Ну чтож, пора на экзамен.</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Спросить череп о заклинании бессмертия</t>
+  </si>
+  <si>
+    <t>Спросить о жизни черепа до бессмертия</t>
+  </si>
+  <si>
+    <t>О нет! Я ещё на 27-ом году погребения пообещал себе, что никому и никогда не расскажу о этом заклинании!</t>
+  </si>
+  <si>
+    <t>Если у тебя будет пара свободных лет, чтобы выслушать историю моей жизни, то я с радостью тебе всё расскажу! И о том, как  я сражался с драконами, и о том как перевернул горы, и о том как уничтожил измерение с демонами! НО! Я профессионал, поэтому сперва я приму у тебя экзамен, а потом может-быть ты удостоишься беседы со мной, недоросль.</t>
+  </si>
+  <si>
+    <t>Давайте начнём экзамен.</t>
+  </si>
+  <si>
+    <t>Да начнётся экзамен на Магистра Ордена Познающих! Время пошло!</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Мне кажется, я видел шпаргалку. Закатай как левый рукав.</t>
+  </si>
+  <si>
+    <t>Хм, невероятно! Если вы списывали, значит вам потребуется минимум еще года три, чтобы как следует подготовиться к этому экзамену! Плохо! Очень плохо, я разочарован! Незачет!</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Аngry</t>
+  </si>
+  <si>
+    <t>Давай проверим твои ответы.</t>
+  </si>
+  <si>
+    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу она то легко сдаст экзамен.</t>
+  </si>
+  <si>
+    <t>А не надо зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
+  </si>
+  <si>
+    <t>Ну более-менее. Хотя, мы же с тобой понимаем, что теория совершенно не показатель. Настоящий экзамен это демонстрация практических навыков!</t>
+  </si>
+  <si>
+    <t>Вот тебе кристаллик флюорита и перо. Да да, этот кристалл является основой всех порталов. Цель экзамена - с помощью кристаллика телепортировать вот это перо. Скажем... на соседний стол.</t>
+  </si>
+  <si>
+    <t>Ну что за детская задачка?! Я уже три года в библиотеке разрабатываю схему постройки настоящего портала! А вы мне предлагаете перо телепортировать?</t>
+  </si>
+  <si>
+    <t>Тупенький юнец! Ты хоть знаешь сколько учёных и инженеров пытались повторить постройку портала? Это невозможно! Порталы могли строить только древние! Ныне умения строить порталы безвозвратно утеряны!</t>
+  </si>
+  <si>
+    <t>Я изучал отчеты тех кто пытался строить порталы, благо все они аккуратно хранятся в нашей библиотеке. И везде, во всех расчетах, предполагалось, что порталы не будут двигаться. Однако, если представить, что порталы не стоят на месте, а перемещаются в каком-то невидимом поле, то можно соединиться с соседними построенными порталами безопасным туннелем! Только посмотрите на мои расчёты! Они лежат на моём рабочем столе в архиве библиотеки.</t>
+  </si>
+  <si>
+    <t>Если порталы действительно перемещаются, то я балерина! Что за вздор! Это настолько смешно, что я даже соглашусь взглянуть на твои формулы!</t>
+  </si>
+  <si>
+    <t>Но поскольку я профессионал, то сделаем мы это только после экзамена!</t>
+  </si>
+  <si>
+    <t>Да как эта летающая кочерыжка смеет так не уважительно относиться ко мне? Надо ему показать, что я на самом деле могу!</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>Показать мощь и переместить перо в соседнюю деревню</t>
+  </si>
+  <si>
+    <t>Устроить фейерверк</t>
+  </si>
+  <si>
+    <t>Успокоиться и переместить перо на соседний стол</t>
+  </si>
+  <si>
+    <t>По всему кабинету начинают летать хлопушки. Разноцветные взрывы устроили настоящее светошоу. Череп от неожиданность даже спрятался за ближайший стул.</t>
+  </si>
+  <si>
+    <t>Стой! Хватит! Вижу ты настоящий бунтарь и любишь пробовать что-то новое. Прямо как я до своего преображения.</t>
+  </si>
+  <si>
+    <t>1.4.1b</t>
+  </si>
+  <si>
+    <t>1.4.1a</t>
+  </si>
+  <si>
+    <t>Впечатляет! Не ожидал, что увижу подобный фокус!</t>
+  </si>
+  <si>
+    <t>Что такое? Не получается?</t>
+  </si>
+  <si>
+    <t>Камень флюорита ярко засветился. Перо медленно и с шипением исчезло.</t>
+  </si>
+  <si>
+    <t>Что то не так! Телепортация по другому рабо....</t>
+  </si>
+  <si>
+    <t>Bewilderment</t>
+  </si>
+  <si>
+    <t>Улыбка</t>
+  </si>
+  <si>
+    <t>Глум</t>
+  </si>
+  <si>
+    <t>Страх</t>
+  </si>
+  <si>
+    <t>Мечтательность</t>
+  </si>
+  <si>
+    <t>Безнадёга</t>
+  </si>
+  <si>
+    <t>Сомнения</t>
+  </si>
+  <si>
+    <t>Удивление</t>
+  </si>
+  <si>
+    <t>Недоумение</t>
+  </si>
+  <si>
+    <t>Неопределенность</t>
+  </si>
+  <si>
+    <t>Отвращение</t>
+  </si>
+  <si>
+    <t>Угрюмость</t>
+  </si>
+  <si>
+    <t>Злость</t>
+  </si>
+  <si>
+    <t>Спокойствие</t>
+  </si>
+  <si>
+    <t>Вдруг всё здание сильно тряхнуло! Несколько случайных объектов, так же как и перо, стали с шипением телепортироваться. В коридорах ордена послышалась возрастающая паника!</t>
+  </si>
+  <si>
+    <t>Инесса? Ты чего наделала?</t>
+  </si>
+  <si>
+    <t>Всё стихло. Лишь удивлённые маги в коридоре пытались понять, что произошло.</t>
+  </si>
+  <si>
+    <t>Конечно это была я! Я всегда знала, что обладаю особенной силой.</t>
+  </si>
+  <si>
+    <t>Это не я! ...Или я??..</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Гордость</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>ГОРОДСКОЙ ПОРТАЛ!</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>ГОРОДСКОЙ ПОРТАЛ ВЗОРВАЛСЯ!!!</t>
+  </si>
+  <si>
+    <t>Маг убежал дальше по коридору врываясь в аудитории и повторяя свои слова.</t>
+  </si>
+  <si>
+    <t>Стой! Там же у портала мой отец! С ним всё в порядке?</t>
+  </si>
+  <si>
+    <t>Я изо всех сил побежала к окну, из которого можно было увидеть городской портал. Там уже столпилась толпа любопытствующих. Не слишком церемонясь, я проталкалась до окна.</t>
+  </si>
+  <si>
+    <t>Боже! Портала действительно больше нет! И самое чудовищное, что открывать его мог только мой отец.</t>
+  </si>
+  <si>
+    <t>Слёзы наворачивались на глаза. Сердце вдруг очень сильно заболело.</t>
+  </si>
+  <si>
+    <t>Scene The destroyed Portal</t>
+  </si>
+  <si>
+    <t>Что произошло?! Надо срочно туда добраться!</t>
+  </si>
+  <si>
+    <t>Прыгнуть прямо из окна и сколдовать "мягкое приземление"</t>
+  </si>
+  <si>
+    <t>Не тупить и бежать по лестнице.</t>
+  </si>
+  <si>
+    <t>Несясь по улицам к порталу, я краем глаза заметила, что некоторые камни из дороги исчезли. Может они тоже телепортировались?</t>
+  </si>
+  <si>
+    <t>Наконец я добежала к порталу. Воронка уже была окружена городской стражей. Очень ровный круг стражников стоял ограждая место происшествия от любых зевак.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tears </t>
+  </si>
+  <si>
+    <t>Слёзы</t>
+  </si>
+  <si>
+    <t>Пустите меня! Там мой отец!</t>
+  </si>
+  <si>
+    <t>Приказано никого не пускать!</t>
+  </si>
+  <si>
+    <t>Хм! А ты случайно не Инесса? Дочь сэра Кристофера Манна?</t>
+  </si>
+  <si>
+    <t>Несколько похожих друг-на-друга стражников повернулись в мою сторону. И взгляд у них был не очень. Интуиция подсказывала, что что-то тут не так...</t>
+  </si>
+  <si>
+    <t>Сваливай отсюда, пока не арестовали! Не мешай работать!</t>
+  </si>
+  <si>
+    <t>Нет... А вы моего отца не видели? Он такой… Ну в сером плаще…</t>
+  </si>
+  <si>
+    <t>Странно, но после моих слов, стражники сразу потеряли ко мне интерес.</t>
+  </si>
+  <si>
+    <t>Я послушно отошла от стражника. Голова расскалывалась от вопросов, на которые никто не мог ответить.</t>
+  </si>
+  <si>
+    <t>Нигде вокруг не было видно отца. Где он?</t>
+  </si>
+  <si>
+    <t>Инесса разбилась насмерть. Достаточно обидная смерть…</t>
+  </si>
+  <si>
+    <t>Может с отцом всё в порядке? Может я зря тут волнуюсь? Может он сейчас ищет меня в здании ордена? Находясь тут я ничего не узнаю, надо вернуться в библиотеку.</t>
+  </si>
+  <si>
+    <t>Главный портал страны просто исчез. На его месте осталась только воронка. Никто не знает, что случилось. Вся столица на ушах. Не понятно как теперь торговать и путешествовать. Зачем теперь людям жить в столице, если никто и никогда не сможет починить или построить новый портал? Королева просто в ярости! И чем теперь заниматься целому ордену познающих?</t>
+  </si>
+  <si>
+    <t>Вы знаете где Архимагистр?</t>
+  </si>
+  <si>
+    <t>Никто не видел моего отца?</t>
+  </si>
+  <si>
+    <t>…ага…</t>
+  </si>
+  <si>
+    <t>Все встреченные люди отвечали, что не знают где он или где его искать.</t>
+  </si>
+  <si>
+    <t>Scene The General Hall of the Order</t>
+  </si>
+  <si>
+    <t>Это общий сбор. Сейчас будет важное сообщение. Пойдём. Сейчас, наверное, нам расскажут, что случилось.</t>
+  </si>
+  <si>
+    <t>В стенах ордена зазвенел колокол. Все работники, ученики, маги и магистры пошли в главный зал.</t>
+  </si>
+  <si>
+    <t>ВНИМАНИЕ! ВНИМАНИЕ! Слушайте меня!</t>
+  </si>
+  <si>
+    <t>Сегодня случилась трагедия! Наш бесценный портал был разрушен. Это огромная потеря для всего королевства. Теперь мы не можем поддерживать нашу армию в войне с орками. И виноват во всём наш бывший архимагистр Кристофер Манн! Из-за его профнепригодности он не смог правильно произнести заклинание открытия портала. Я, как новый архимагистр, отстраняю Кристоффера Манна от должности!</t>
+  </si>
+  <si>
+    <t>На данный момент о Граугалорафоре знают лишь немногие из нашего ордена.</t>
+  </si>
+  <si>
+    <t>5.1b</t>
+  </si>
+  <si>
+    <t>Я вбежала в свою комнату, но вместо отца там находился череп.</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Грусть</t>
+  </si>
+  <si>
+    <t>Сэр черепушка?</t>
+  </si>
+  <si>
+    <t>Я подслушал разговоры. Судя по всему твой отец угодил в сломанный портал. И если это действительно так, то он считай труп. Его могло разорвать на 1000 кусочков, каждый из которых может оказаться где угодно. И в центре вулкана, и в желудке у дракона, и даже в измерении вязаных носков. Шансов выжить у него практически не было.</t>
+  </si>
+  <si>
+    <t>Мне очень жаль( Оставить тебя поплакать наедине?</t>
+  </si>
+  <si>
+    <t>Ты за кого меня принимаешь?! Сперва надо выяснить, что случилось на самом деле! Eсли есть шанс, что мой отец жив, я обязательно его отыщу! Отец явно не мог вот так просто исчезнуть!</t>
+  </si>
+  <si>
+    <t>И что же ты будешь делать?</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>InessaRoom</t>
+  </si>
+  <si>
+    <t>PortalOn</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>GGThoughts</t>
+  </si>
+  <si>
+    <t>Narrator</t>
+  </si>
+  <si>
+    <t>章</t>
+  </si>
+  <si>
+    <t>Карта.Рассказ о стране.
 Война с орками
 Гибель героя-короля и его первенца в войне с орками
 Столица.
@@ -71,577 +646,16 @@
 О ученике Януса Кристофере и его звании Магистра в этом ордене</t>
   </si>
   <si>
-    <t>Scene Corridors of the University</t>
-  </si>
-  <si>
-    <t>Inessa</t>
-  </si>
-  <si>
-    <t>Positions</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>Cristopher</t>
-  </si>
-  <si>
-    <t>Graugalorafor</t>
-  </si>
-  <si>
-    <t>Karim</t>
-  </si>
-  <si>
-    <t>Vargus</t>
-  </si>
-  <si>
-    <t>Tiir</t>
-  </si>
-  <si>
-    <t>Arguz</t>
-  </si>
-  <si>
-    <t>Vacela</t>
-  </si>
-  <si>
-    <t>Morven</t>
-  </si>
-  <si>
-    <t>Hurga</t>
-  </si>
-  <si>
-    <t>Guard</t>
-  </si>
-  <si>
-    <t>Dwarf</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Кристофер гуляет по ордену с ГГ рассказывая о том, чему служит орден познающих и о прошлых магистрах</t>
-  </si>
-  <si>
-    <t>Кристофер датит ГГ книгу</t>
-  </si>
-  <si>
-    <t>ГГ выдаёт классическое "Па-а-ап! Ну я уже не маленький/ая!"</t>
-  </si>
-  <si>
-    <t>Варгус?! Не появляйся так неожиданно!</t>
-  </si>
-  <si>
-    <t>Не волнуйся. Я не собираюсь делать поблажки своей дочурке. Она будет сдавать экзамен по всей строгости.</t>
-  </si>
-  <si>
-    <t>Ну разумеется. Как же может быть иначе?</t>
-  </si>
-  <si>
-    <t>My child, the day of your exam has come.</t>
-  </si>
-  <si>
-    <t>Ну и заместитель у тебя отец. Как же он мне не нравится.</t>
-  </si>
-  <si>
-    <t>Может характер у него и не очень, но он отлично умеет справляться с бумажками. Без него, я не смог бы заниматься своими исследованиями.</t>
-  </si>
-  <si>
-    <t>Не советую тебе сейчас рассуждать о Варгусе. Тебе надо готовиться! Помнишь? Завтра экзамен.</t>
-  </si>
-  <si>
-    <t>Ага… Интересно, а ему как? Нравится "справляться с бумажками"?</t>
-  </si>
-  <si>
-    <t>Ой! Извините мне уже пора. Надо готовиться к... очень важдому событию.</t>
-  </si>
-  <si>
-    <t>…разве? Какой экзамен?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да да. Очень смешно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
-  </si>
-  <si>
-    <t>Ну раз папенька просит, загляну в его книгу.</t>
-  </si>
-  <si>
-    <t>Доброго утра отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
-  </si>
-  <si>
-    <t>Ина! Что за неуважение к традициям?</t>
-  </si>
-  <si>
-    <t>Сегодня состоится экзамен на звание Магистра Ордена Познающих. Экзаменуемый Инесса Кристоферна Манн. Вы готовы к сдаче?</t>
-  </si>
-  <si>
-    <t>Emotion</t>
-  </si>
-  <si>
-    <t>Smile</t>
-  </si>
-  <si>
-    <t>Gloomy</t>
-  </si>
-  <si>
-    <t>Fear</t>
-  </si>
-  <si>
-    <t>Dreaming</t>
-  </si>
-  <si>
-    <t>Helpless</t>
-  </si>
-  <si>
-    <t>Так точно!</t>
-  </si>
-  <si>
-    <t>Сколько всего. Может стоит сделать шпаргалку к завтрашнему экзамену?</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Особенно зная, что принимать будешь ты.</t>
-  </si>
-  <si>
-    <t>Ах да. Признаюсь, я всегда был очень мягок с тобой. Поэтому я принял тяжелое решение и экзамен будет принимать другой архимагистр, а точнее бывший архимагистр.</t>
-  </si>
-  <si>
-    <t>Что?</t>
-  </si>
-  <si>
-    <t>Знакомься. Это первый архимагистр нашего ордена. Сэр Граугалорафор!</t>
-  </si>
-  <si>
-    <t>Простите, что?</t>
-  </si>
-  <si>
-    <t>Череп? Летающий? Говорящий? Отец, что происходит?</t>
-  </si>
-  <si>
-    <t>Отец явно остался доволен произведённым эффектом.</t>
-  </si>
-  <si>
-    <t>ПРИВЕТСТВУЮ СМЕРТНАЯ!!!</t>
-  </si>
-  <si>
-    <t>Вы даже не представляете! Оказывается побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
-  </si>
-  <si>
-    <t>Doubt</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>А он точно сможет принять у меня экзамен? У него всё в порядке с головой?</t>
-  </si>
-  <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Сэр Граугалорафор абсолютно точно знает всё, что нужно для экзамена. Я проверял.</t>
-  </si>
-  <si>
-    <t>За это время его успели похоронить.</t>
-  </si>
-  <si>
-    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год.</t>
-  </si>
-  <si>
-    <t>Вот в моё время все носили нормальные имена: "Граугалорагран", "Дизоаунаминаболь"!</t>
-  </si>
-  <si>
-    <t>Не то что сейчас. Инесса, Кристофер… обрубки какието. Нет величия в ваших именах!</t>
-  </si>
-  <si>
-    <t>Disgust</t>
-  </si>
-  <si>
-    <t>[医][医][医][医][医]</t>
-  </si>
-  <si>
-    <t>Отец? У меня один вопрос. Как ты так легко выговариваешь его имя? Грау-о-ло-ло… Гру-ла-ла-лала-фор… Рау-гала-фил… Тьфу. Язык сломаешь.</t>
-  </si>
-  <si>
-    <t>Мне кажется, что во всём виноват писарь. Он просто не смог правильно записать моё имя.</t>
-  </si>
-  <si>
-    <t>Основатель? В наших старинных свёртках вы записаны по другому. Вас все знают под именем Карлос.</t>
-  </si>
-  <si>
-    <t>Наверное из-за невозможности их записать имена и поменялись.</t>
-  </si>
-  <si>
-    <t>Рад, что вы так быстро поладили.</t>
-  </si>
-  <si>
-    <t>Инесса! Я надеюсь, что ближайшие пару часов ты не покинешь стен ордена и успешно сдашь экзамен.</t>
-  </si>
-  <si>
-    <t>А теперь, я вынужден откланяться. Мне надо срочно идти открывать портал.</t>
-  </si>
-  <si>
-    <t>Sullenly</t>
-  </si>
-  <si>
-    <t>Странно что архимагистр лично занимается открытием портала. Работа не по должности ведь.</t>
-  </si>
-  <si>
-    <t>Ну ладно. К экзамену готов? Вопросы есть?</t>
-  </si>
-  <si>
-    <t>А вот и утро. Ну чтож, пора на экзамен.</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>Спросить череп о заклинании бессмертия</t>
-  </si>
-  <si>
-    <t>Спросить о жизни черепа до бессмертия</t>
-  </si>
-  <si>
-    <t>О нет! Я ещё на 27-ом году погребения пообещал себе, что никому и никогда не расскажу о этом заклинании!</t>
-  </si>
-  <si>
-    <t>Если у тебя будет пара свободных лет, чтобы выслушать историю моей жизни, то я с радостью тебе всё расскажу! И о том, как  я сражался с драконами, и о том как перевернул горы, и о том как уничтожил измерение с демонами! НО! Я профессионал, поэтому сперва я приму у тебя экзамен, а потом может-быть ты удостоишься беседы со мной, недоросль.</t>
-  </si>
-  <si>
-    <t>Давайте начнём экзамен.</t>
-  </si>
-  <si>
-    <t>Да начнётся экзамен на Магистра Ордена Познающих! Время пошло!</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Мне кажется, я видел шпаргалку. Закатай как левый рукав.</t>
-  </si>
-  <si>
-    <t>Хм, невероятно! Если вы списывали, значит вам потребуется минимум еще года три, чтобы как следует подготовиться к этому экзамену! Плохо! Очень плохо, я разочарован! Незачет!</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>Аngry</t>
-  </si>
-  <si>
-    <t>Давай проверим твои ответы.</t>
-  </si>
-  <si>
-    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу она то легко сдаст экзамен.</t>
-  </si>
-  <si>
-    <t>А не надо зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
-  </si>
-  <si>
-    <t>Ну более-менее. Хотя, мы же с тобой понимаем, что теория совершенно не показатель. Настоящий экзамен это демонстрация практических навыков!</t>
-  </si>
-  <si>
-    <t>Вот тебе кристаллик флюорита и перо. Да да, этот кристалл является основой всех порталов. Цель экзамена - с помощью кристаллика телепортировать вот это перо. Скажем... на соседний стол.</t>
-  </si>
-  <si>
-    <t>Ну что за детская задачка?! Я уже три года в библиотеке разрабатываю схему постройки настоящего портала! А вы мне предлагаете перо телепортировать?</t>
-  </si>
-  <si>
-    <t>Тупенький юнец! Ты хоть знаешь сколько учёных и инженеров пытались повторить постройку портала? Это невозможно! Порталы могли строить только древние! Ныне умения строить порталы безвозвратно утеряны!</t>
-  </si>
-  <si>
-    <t>Я изучал отчеты тех кто пытался строить порталы, благо все они аккуратно хранятся в нашей библиотеке. И везде, во всех расчетах, предполагалось, что порталы не будут двигаться. Однако, если представить, что порталы не стоят на месте, а перемещаются в каком-то невидимом поле, то можно соединиться с соседними построенными порталами безопасным туннелем! Только посмотрите на мои расчёты! Они лежат на моём рабочем столе в архиве библиотеки.</t>
-  </si>
-  <si>
-    <t>Если порталы действительно перемещаются, то я балерина! Что за вздор! Это настолько смешно, что я даже соглашусь взглянуть на твои формулы!</t>
-  </si>
-  <si>
-    <t>Но поскольку я профессионал, то сделаем мы это только после экзамена!</t>
-  </si>
-  <si>
-    <t>Да как эта летающая кочерыжка смеет так не уважительно относиться ко мне? Надо ему показать, что я на самом деле могу!</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>Показать мощь и переместить перо в соседнюю деревню</t>
-  </si>
-  <si>
-    <t>Устроить фейерверк</t>
-  </si>
-  <si>
-    <t>Успокоиться и переместить перо на соседний стол</t>
-  </si>
-  <si>
-    <t>По всему кабинету начинают летать хлопушки. Разноцветные взрывы устроили настоящее светошоу. Череп от неожиданность даже спрятался за ближайший стул.</t>
-  </si>
-  <si>
-    <t>Стой! Хватит! Вижу ты настоящий бунтарь и любишь пробовать что-то новое. Прямо как я до своего преображения.</t>
-  </si>
-  <si>
-    <t>1.4.1b</t>
-  </si>
-  <si>
-    <t>1.4.1a</t>
-  </si>
-  <si>
-    <t>Впечатляет! Не ожидал, что увижу подобный фокус!</t>
-  </si>
-  <si>
-    <t>Что такое? Не получается?</t>
-  </si>
-  <si>
-    <t>Камень флюорита ярко засветился. Перо медленно и с шипением исчезло.</t>
-  </si>
-  <si>
-    <t>Что то не так! Телепортация по другому рабо....</t>
-  </si>
-  <si>
-    <t>Bewilderment</t>
-  </si>
-  <si>
-    <t>Улыбка</t>
-  </si>
-  <si>
-    <t>Глум</t>
-  </si>
-  <si>
-    <t>Страх</t>
-  </si>
-  <si>
-    <t>Мечтательность</t>
-  </si>
-  <si>
-    <t>Безнадёга</t>
-  </si>
-  <si>
-    <t>Сомнения</t>
-  </si>
-  <si>
-    <t>Удивление</t>
-  </si>
-  <si>
-    <t>Недоумение</t>
-  </si>
-  <si>
-    <t>Неопределенность</t>
-  </si>
-  <si>
-    <t>Отвращение</t>
-  </si>
-  <si>
-    <t>Угрюмость</t>
-  </si>
-  <si>
-    <t>Злость</t>
-  </si>
-  <si>
-    <t>Спокойствие</t>
-  </si>
-  <si>
-    <t>Вдруг всё здание сильно тряхнуло! Несколько случайных объектов, так же как и перо, стали с шипением телепортироваться. В коридорах ордена послышалась возрастающая паника!</t>
-  </si>
-  <si>
-    <t>Инесса? Ты чего наделала?</t>
-  </si>
-  <si>
-    <t>Всё стихло. Лишь удивлённые маги в коридоре пытались понять, что произошло.</t>
-  </si>
-  <si>
-    <t>Конечно это была я! Я всегда знала, что обладаю особенной силой.</t>
-  </si>
-  <si>
-    <t>Это не я! ...Или я??..</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Гордость</t>
-  </si>
-  <si>
-    <t>Mage</t>
-  </si>
-  <si>
-    <t>ГОРОДСКОЙ ПОРТАЛ!</t>
-  </si>
-  <si>
-    <t>!!!</t>
-  </si>
-  <si>
-    <t>ГОРОДСКОЙ ПОРТАЛ ВЗОРВАЛСЯ!!!</t>
-  </si>
-  <si>
-    <t>Маг убежал дальше по коридору врываясь в аудитории и повторяя свои слова.</t>
-  </si>
-  <si>
-    <t>Стой! Там же у портала мой отец! С ним всё в порядке?</t>
-  </si>
-  <si>
-    <t>Я изо всех сил побежала к окну, из которого можно было увидеть городской портал. Там уже столпилась толпа любопытствующих. Не слишком церемонясь, я проталкалась до окна.</t>
-  </si>
-  <si>
-    <t>Боже! Портала действительно больше нет! И самое чудовищное, что открывать его мог только мой отец.</t>
-  </si>
-  <si>
-    <t>Слёзы наворачивались на глаза. Сердце вдруг очень сильно заболело.</t>
-  </si>
-  <si>
-    <t>Scene The destroyed Portal</t>
-  </si>
-  <si>
-    <t>Что произошло?! Надо срочно туда добраться!</t>
-  </si>
-  <si>
-    <t>Прыгнуть прямо из окна и сколдовать "мягкое приземление"</t>
-  </si>
-  <si>
-    <t>Не тупить и бежать по лестнице.</t>
-  </si>
-  <si>
-    <t>Несясь по улицам к порталу, я краем глаза заметила, что некоторые камни из дороги исчезли. Может они тоже телепортировались?</t>
-  </si>
-  <si>
-    <t>Наконец я добежала к порталу. Воронка уже была окружена городской стражей. Очень ровный круг стражников стоял ограждая место происшествия от любых зевак.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tears </t>
-  </si>
-  <si>
-    <t>Слёзы</t>
-  </si>
-  <si>
-    <t>Пустите меня! Там мой отец!</t>
-  </si>
-  <si>
-    <t>Приказано никого не пускать!</t>
-  </si>
-  <si>
-    <t>Хм! А ты случайно не Инесса? Дочь сэра Кристофера Манна?</t>
-  </si>
-  <si>
-    <t>Несколько похожих друг-на-друга стражников повернулись в мою сторону. И взгляд у них был не очень. Интуиция подсказывала, что что-то тут не так...</t>
-  </si>
-  <si>
-    <t>Сваливай отсюда, пока не арестовали! Не мешай работать!</t>
-  </si>
-  <si>
-    <t>Нет... А вы моего отца не видели? Он такой… Ну в сером плаще…</t>
-  </si>
-  <si>
-    <t>Странно, но после моих слов, стражники сразу потеряли ко мне интерес.</t>
-  </si>
-  <si>
-    <t>Я послушно отошла от стражника. Голова расскалывалась от вопросов, на которые никто не мог ответить.</t>
-  </si>
-  <si>
-    <t>Нигде вокруг не было видно отца. Где он?</t>
-  </si>
-  <si>
-    <t>Инесса разбилась насмерть. Достаточно обидная смерть…</t>
-  </si>
-  <si>
-    <t>Может с отцом всё в порядке? Может я зря тут волнуюсь? Может он сейчас ищет меня в здании ордена? Находясь тут я ничего не узнаю, надо вернуться в библиотеку.</t>
-  </si>
-  <si>
-    <t>Главный портал страны просто исчез. На его месте осталась только воронка. Никто не знает, что случилось. Вся столица на ушах. Не понятно как теперь торговать и путешествовать. Зачем теперь людям жить в столице, если никто и никогда не сможет починить или построить новый портал? Королева просто в ярости! И чем теперь заниматься целому ордену познающих?</t>
-  </si>
-  <si>
-    <t>Вы знаете где Архимагистр?</t>
-  </si>
-  <si>
-    <t>Никто не видел моего отца?</t>
-  </si>
-  <si>
-    <t>…ага…</t>
-  </si>
-  <si>
-    <t>Все встреченные люди отвечали, что не знают где он или где его искать.</t>
-  </si>
-  <si>
-    <t>Scene The General Hall of the Order</t>
-  </si>
-  <si>
-    <t>Это общий сбор. Сейчас будет важное сообщение. Пойдём. Сейчас, наверное, нам расскажут, что случилось.</t>
-  </si>
-  <si>
-    <t>В стенах ордена зазвенел колокол. Все работники, ученики, маги и магистры пошли в главный зал.</t>
-  </si>
-  <si>
-    <t>ВНИМАНИЕ! ВНИМАНИЕ! Слушайте меня!</t>
-  </si>
-  <si>
-    <t>Сегодня случилась трагедия! Наш бесценный портал был разрушен. Это огромная потеря для всего королевства. Теперь мы не можем поддерживать нашу армию в войне с орками. И виноват во всём наш бывший архимагистр Кристофер Манн! Из-за его профнепригодности он не смог правильно произнести заклинание открытия портала. Я, как новый архимагистр, отстраняю Кристоффера Манна от должности!</t>
-  </si>
-  <si>
-    <t>На данный момент о Граугалорафоре знают лишь немногие из нашего ордена.</t>
-  </si>
-  <si>
-    <t>5.1b</t>
-  </si>
-  <si>
-    <t>Я вбежала в свою комнату, но вместо отца там находился череп.</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Грусть</t>
-  </si>
-  <si>
-    <t>Сэр черепушка?</t>
-  </si>
-  <si>
-    <t>Я подслушал разговоры. Судя по всему твой отец угодил в сломанный портал. И если это действительно так, то он считай труп. Его могло разорвать на 1000 кусочков, каждый из которых может оказаться где угодно. И в центре вулкана, и в желудке у дракона, и даже в измерении вязаных носков. Шансов выжить у него практически не было.</t>
-  </si>
-  <si>
-    <t>Мне очень жаль( Оставить тебя поплакать наедине?</t>
-  </si>
-  <si>
-    <t>Ты за кого меня принимаешь?! Сперва надо выяснить, что случилось на самом деле! Eсли есть шанс, что мой отец жив, я обязательно его отыщу! Отец явно не мог вот так просто исчезнуть!</t>
-  </si>
-  <si>
-    <t>И что же ты будешь делать?</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>InessaRoom</t>
-  </si>
-  <si>
-    <t>PortalOn</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>GGThoughts</t>
-  </si>
-  <si>
-    <t>Narrator</t>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>My child, the day of yo.
+ur exam has come. In the evening, you will already be a recognized master and w.
+e can celebrate.</t>
+  </si>
+  <si>
+    <t>实验实
+验室室</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1633,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,8 +1649,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1645,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1660,12 +1677,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>206</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,7 +1696,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1681,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1689,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1706,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1723,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>11</v>
@@ -1737,13 +1760,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1757,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1771,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
@@ -1791,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1802,16 +1825,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>13</v>
@@ -1822,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
@@ -1836,7 +1859,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1844,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1863,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1874,10 +1897,10 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1885,10 +1908,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,13 +1919,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1910,18 +1933,18 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,27 +1952,27 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1980,7 @@
         <v>1.2</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,15 +1988,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1989,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1997,13 +2020,13 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2025,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,13 +2070,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2061,13 +2084,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2075,13 +2098,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2089,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,13 +2129,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,13 +2143,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2134,18 +2157,18 @@
         <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2153,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2178,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2194,13 +2217,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2210,10 +2233,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2223,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2239,13 +2262,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2253,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2264,10 +2287,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2275,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2291,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2310,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2332,13 +2355,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2348,13 +2371,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2362,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2378,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2386,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2397,18 +2420,18 @@
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F61" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2419,13 +2442,13 @@
         <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2433,24 +2456,24 @@
         <v>1</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2458,27 +2481,27 @@
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -2486,27 +2509,27 @@
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2514,10 +2537,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2542,27 +2565,27 @@
         <v>1</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2572,27 +2595,27 @@
         <v>1</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2600,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2611,13 +2634,13 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2625,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -2636,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2650,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2661,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,82 +2701,82 @@
         <v>2</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="G83" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="G88" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2761,32 +2784,32 @@
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,18 +2817,18 @@
         <v>2</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="G93" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,18 +2836,18 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G95" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2832,13 +2855,13 @@
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2846,13 +2869,13 @@
         <v>2</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,13 +2886,13 @@
         <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F98" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2880,23 +2903,23 @@
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F100" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G101" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,13 +2938,13 @@
         <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2929,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,13 +2966,13 @@
         <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2957,13 +2980,13 @@
         <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2971,30 +2994,30 @@
         <v>5</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="G109" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G110" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G111" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3002,7 +3025,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,18 +3033,18 @@
         <v>5.2</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3029,15 +3052,15 @@
         <v>6</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="G116" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,13 +3068,13 @@
         <v>2</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3067,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,15 +3098,15 @@
         <v>0</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3091,32 +3114,32 @@
         <v>0</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="F123" s="18"/>
       <c r="G123" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E124" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G125" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3124,23 +3147,23 @@
         <v>0</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="G127" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="G128" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3148,7 +3171,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3159,13 +3182,13 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3176,26 +3199,26 @@
         <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="G132" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,10 +3229,10 @@
         <v>2</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3217,10 +3240,10 @@
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,13 +3254,13 @@
         <v>2</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -3245,13 +3268,13 @@
         <v>2</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,13 +3282,13 @@
         <v>2</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3276,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3290,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3311,6 +3334,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -3369,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3387,19 +3411,19 @@
     <row r="2" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3411,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3423,10 +3447,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3438,19 +3462,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3462,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -3480,13 +3504,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3507,10 +3531,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3519,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3534,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3546,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3603,13 +3627,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,156 +3666,156 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="C17" t="s">
-        <v>166</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
       <c r="D18" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -1633,7 +1633,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="260">
   <si>
     <t>Center</t>
   </si>
@@ -51,9 +51,6 @@
     <t>??????</t>
   </si>
   <si>
-    <t>BOOO!!</t>
-  </si>
-  <si>
     <t>My child, the day of your exam has come. In the evening, you will already be a recognized master and we can celebrate.</t>
   </si>
   <si>
@@ -114,54 +111,9 @@
     <t>Кристофер датит ГГ книгу</t>
   </si>
   <si>
-    <t>ГГ выдаёт классическое "Па-а-ап! Ну я уже не маленький/ая!"</t>
-  </si>
-  <si>
-    <t>Варгус?! Не появляйся так неожиданно!</t>
-  </si>
-  <si>
-    <t>Не волнуйся. Я не собираюсь делать поблажки своей дочурке. Она будет сдавать экзамен по всей строгости.</t>
-  </si>
-  <si>
     <t>Ну разумеется. Как же может быть иначе?</t>
   </si>
   <si>
-    <t>My child, the day of your exam has come.</t>
-  </si>
-  <si>
-    <t>Ну и заместитель у тебя отец. Как же он мне не нравится.</t>
-  </si>
-  <si>
-    <t>Может характер у него и не очень, но он отлично умеет справляться с бумажками. Без него, я не смог бы заниматься своими исследованиями.</t>
-  </si>
-  <si>
-    <t>Не советую тебе сейчас рассуждать о Варгусе. Тебе надо готовиться! Помнишь? Завтра экзамен.</t>
-  </si>
-  <si>
-    <t>Ага… Интересно, а ему как? Нравится "справляться с бумажками"?</t>
-  </si>
-  <si>
-    <t>Ой! Извините мне уже пора. Надо готовиться к... очень важдому событию.</t>
-  </si>
-  <si>
-    <t>…разве? Какой экзамен?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да да. Очень смешно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
-  </si>
-  <si>
-    <t>Ну раз папенька просит, загляну в его книгу.</t>
-  </si>
-  <si>
-    <t>Доброго утра отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
-  </si>
-  <si>
-    <t>Ина! Что за неуважение к традициям?</t>
-  </si>
-  <si>
-    <t>Сегодня состоится экзамен на звание Магистра Ордена Познающих. Экзаменуемый Инесса Кристоферна Манн. Вы готовы к сдаче?</t>
-  </si>
-  <si>
     <t>Emotion</t>
   </si>
   <si>
@@ -180,42 +132,12 @@
     <t>Helpless</t>
   </si>
   <si>
-    <t>Так точно!</t>
-  </si>
-  <si>
-    <t>Сколько всего. Может стоит сделать шпаргалку к завтрашнему экзамену?</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Особенно зная, что принимать будешь ты.</t>
-  </si>
-  <si>
-    <t>Ах да. Признаюсь, я всегда был очень мягок с тобой. Поэтому я принял тяжелое решение и экзамен будет принимать другой архимагистр, а точнее бывший архимагистр.</t>
-  </si>
-  <si>
     <t>Что?</t>
   </si>
   <si>
     <t>Знакомься. Это первый архимагистр нашего ордена. Сэр Граугалорафор!</t>
   </si>
   <si>
-    <t>Простите, что?</t>
-  </si>
-  <si>
-    <t>Череп? Летающий? Говорящий? Отец, что происходит?</t>
-  </si>
-  <si>
-    <t>Отец явно остался доволен произведённым эффектом.</t>
-  </si>
-  <si>
-    <t>ПРИВЕТСТВУЮ СМЕРТНАЯ!!!</t>
-  </si>
-  <si>
-    <t>Вы даже не представляете! Оказывается побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
-  </si>
-  <si>
     <t>Doubt</t>
   </si>
   <si>
@@ -225,9 +147,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>А он точно сможет принять у меня экзамен? У него всё в порядке с головой?</t>
-  </si>
-  <si>
     <t>Uncertainty</t>
   </si>
   <si>
@@ -237,33 +156,12 @@
     <t>За это время его успели похоронить.</t>
   </si>
   <si>
-    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого вот уже почти 700 лет томился сэр Граугалорафор. Оказывается наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил, не мог двигаться целый год.</t>
-  </si>
-  <si>
-    <t>Вот в моё время все носили нормальные имена: "Граугалорагран", "Дизоаунаминаболь"!</t>
-  </si>
-  <si>
-    <t>Не то что сейчас. Инесса, Кристофер… обрубки какието. Нет величия в ваших именах!</t>
-  </si>
-  <si>
     <t>Disgust</t>
   </si>
   <si>
     <t>[医][医][医][医][医]</t>
   </si>
   <si>
-    <t>Отец? У меня один вопрос. Как ты так легко выговариваешь его имя? Грау-о-ло-ло… Гру-ла-ла-лала-фор… Рау-гала-фил… Тьфу. Язык сломаешь.</t>
-  </si>
-  <si>
-    <t>Мне кажется, что во всём виноват писарь. Он просто не смог правильно записать моё имя.</t>
-  </si>
-  <si>
-    <t>Основатель? В наших старинных свёртках вы записаны по другому. Вас все знают под именем Карлос.</t>
-  </si>
-  <si>
-    <t>Наверное из-за невозможности их записать имена и поменялись.</t>
-  </si>
-  <si>
     <t>Рад, что вы так быстро поладили.</t>
   </si>
   <si>
@@ -276,99 +174,27 @@
     <t>Sullenly</t>
   </si>
   <si>
-    <t>Странно что архимагистр лично занимается открытием портала. Работа не по должности ведь.</t>
-  </si>
-  <si>
-    <t>Ну ладно. К экзамену готов? Вопросы есть?</t>
-  </si>
-  <si>
-    <t>А вот и утро. Ну чтож, пора на экзамен.</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
     <t>Спросить череп о заклинании бессмертия</t>
   </si>
   <si>
     <t>Спросить о жизни черепа до бессмертия</t>
   </si>
   <si>
-    <t>О нет! Я ещё на 27-ом году погребения пообещал себе, что никому и никогда не расскажу о этом заклинании!</t>
-  </si>
-  <si>
-    <t>Если у тебя будет пара свободных лет, чтобы выслушать историю моей жизни, то я с радостью тебе всё расскажу! И о том, как  я сражался с драконами, и о том как перевернул горы, и о том как уничтожил измерение с демонами! НО! Я профессионал, поэтому сперва я приму у тебя экзамен, а потом может-быть ты удостоишься беседы со мной, недоросль.</t>
-  </si>
-  <si>
     <t>Давайте начнём экзамен.</t>
   </si>
   <si>
     <t>Да начнётся экзамен на Магистра Ордена Познающих! Время пошло!</t>
   </si>
   <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>Мне кажется, я видел шпаргалку. Закатай как левый рукав.</t>
-  </si>
-  <si>
-    <t>Хм, невероятно! Если вы списывали, значит вам потребуется минимум еще года три, чтобы как следует подготовиться к этому экзамену! Плохо! Очень плохо, я разочарован! Незачет!</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
     <t>Аngry</t>
   </si>
   <si>
     <t>Давай проверим твои ответы.</t>
   </si>
   <si>
-    <t>Ах! Архимагистр! Здравствуйте! Вижу вы даёте наставления дочери перед её экзаменом. Как мило. Но, разве это так нужно? Уж своему отцу она то легко сдаст экзамен.</t>
-  </si>
-  <si>
-    <t>А не надо зевать, юная леди. Вот для меня этот экзамен был действительно сложным. Помню как не мог его сдать 3 раза.</t>
-  </si>
-  <si>
-    <t>Ну более-менее. Хотя, мы же с тобой понимаем, что теория совершенно не показатель. Настоящий экзамен это демонстрация практических навыков!</t>
-  </si>
-  <si>
-    <t>Вот тебе кристаллик флюорита и перо. Да да, этот кристалл является основой всех порталов. Цель экзамена - с помощью кристаллика телепортировать вот это перо. Скажем... на соседний стол.</t>
-  </si>
-  <si>
-    <t>Ну что за детская задачка?! Я уже три года в библиотеке разрабатываю схему постройки настоящего портала! А вы мне предлагаете перо телепортировать?</t>
-  </si>
-  <si>
-    <t>Тупенький юнец! Ты хоть знаешь сколько учёных и инженеров пытались повторить постройку портала? Это невозможно! Порталы могли строить только древние! Ныне умения строить порталы безвозвратно утеряны!</t>
-  </si>
-  <si>
-    <t>Я изучал отчеты тех кто пытался строить порталы, благо все они аккуратно хранятся в нашей библиотеке. И везде, во всех расчетах, предполагалось, что порталы не будут двигаться. Однако, если представить, что порталы не стоят на месте, а перемещаются в каком-то невидимом поле, то можно соединиться с соседними построенными порталами безопасным туннелем! Только посмотрите на мои расчёты! Они лежат на моём рабочем столе в архиве библиотеки.</t>
-  </si>
-  <si>
-    <t>Если порталы действительно перемещаются, то я балерина! Что за вздор! Это настолько смешно, что я даже соглашусь взглянуть на твои формулы!</t>
-  </si>
-  <si>
-    <t>Но поскольку я профессионал, то сделаем мы это только после экзамена!</t>
-  </si>
-  <si>
     <t>Да как эта летающая кочерыжка смеет так не уважительно относиться ко мне? Надо ему показать, что я на самом деле могу!</t>
   </si>
   <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
     <t>Показать мощь и переместить перо в соседнюю деревню</t>
   </si>
   <si>
@@ -381,27 +207,12 @@
     <t>По всему кабинету начинают летать хлопушки. Разноцветные взрывы устроили настоящее светошоу. Череп от неожиданность даже спрятался за ближайший стул.</t>
   </si>
   <si>
-    <t>Стой! Хватит! Вижу ты настоящий бунтарь и любишь пробовать что-то новое. Прямо как я до своего преображения.</t>
-  </si>
-  <si>
-    <t>1.4.1b</t>
-  </si>
-  <si>
-    <t>1.4.1a</t>
-  </si>
-  <si>
     <t>Впечатляет! Не ожидал, что увижу подобный фокус!</t>
   </si>
   <si>
-    <t>Что такое? Не получается?</t>
-  </si>
-  <si>
     <t>Камень флюорита ярко засветился. Перо медленно и с шипением исчезло.</t>
   </si>
   <si>
-    <t>Что то не так! Телепортация по другому рабо....</t>
-  </si>
-  <si>
     <t>Bewilderment</t>
   </si>
   <si>
@@ -444,18 +255,9 @@
     <t>Спокойствие</t>
   </si>
   <si>
-    <t>Вдруг всё здание сильно тряхнуло! Несколько случайных объектов, так же как и перо, стали с шипением телепортироваться. В коридорах ордена послышалась возрастающая паника!</t>
-  </si>
-  <si>
-    <t>Инесса? Ты чего наделала?</t>
-  </si>
-  <si>
     <t>Всё стихло. Лишь удивлённые маги в коридоре пытались понять, что произошло.</t>
   </si>
   <si>
-    <t>Конечно это была я! Я всегда знала, что обладаю особенной силой.</t>
-  </si>
-  <si>
     <t>Это не я! ...Или я??..</t>
   </si>
   <si>
@@ -477,39 +279,12 @@
     <t>ГОРОДСКОЙ ПОРТАЛ ВЗОРВАЛСЯ!!!</t>
   </si>
   <si>
-    <t>Маг убежал дальше по коридору врываясь в аудитории и повторяя свои слова.</t>
-  </si>
-  <si>
-    <t>Стой! Там же у портала мой отец! С ним всё в порядке?</t>
-  </si>
-  <si>
-    <t>Я изо всех сил побежала к окну, из которого можно было увидеть городской портал. Там уже столпилась толпа любопытствующих. Не слишком церемонясь, я проталкалась до окна.</t>
-  </si>
-  <si>
-    <t>Боже! Портала действительно больше нет! И самое чудовищное, что открывать его мог только мой отец.</t>
-  </si>
-  <si>
-    <t>Слёзы наворачивались на глаза. Сердце вдруг очень сильно заболело.</t>
-  </si>
-  <si>
     <t>Scene The destroyed Portal</t>
   </si>
   <si>
     <t>Что произошло?! Надо срочно туда добраться!</t>
   </si>
   <si>
-    <t>Прыгнуть прямо из окна и сколдовать "мягкое приземление"</t>
-  </si>
-  <si>
-    <t>Не тупить и бежать по лестнице.</t>
-  </si>
-  <si>
-    <t>Несясь по улицам к порталу, я краем глаза заметила, что некоторые камни из дороги исчезли. Может они тоже телепортировались?</t>
-  </si>
-  <si>
-    <t>Наконец я добежала к порталу. Воронка уже была окружена городской стражей. Очень ровный круг стражников стоял ограждая место происшествия от любых зевак.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tears </t>
   </si>
   <si>
@@ -522,48 +297,15 @@
     <t>Приказано никого не пускать!</t>
   </si>
   <si>
-    <t>Хм! А ты случайно не Инесса? Дочь сэра Кристофера Манна?</t>
-  </si>
-  <si>
-    <t>Несколько похожих друг-на-друга стражников повернулись в мою сторону. И взгляд у них был не очень. Интуиция подсказывала, что что-то тут не так...</t>
-  </si>
-  <si>
-    <t>Сваливай отсюда, пока не арестовали! Не мешай работать!</t>
-  </si>
-  <si>
-    <t>Нет... А вы моего отца не видели? Он такой… Ну в сером плаще…</t>
-  </si>
-  <si>
-    <t>Странно, но после моих слов, стражники сразу потеряли ко мне интерес.</t>
-  </si>
-  <si>
-    <t>Я послушно отошла от стражника. Голова расскалывалась от вопросов, на которые никто не мог ответить.</t>
-  </si>
-  <si>
-    <t>Нигде вокруг не было видно отца. Где он?</t>
-  </si>
-  <si>
-    <t>Инесса разбилась насмерть. Достаточно обидная смерть…</t>
-  </si>
-  <si>
-    <t>Может с отцом всё в порядке? Может я зря тут волнуюсь? Может он сейчас ищет меня в здании ордена? Находясь тут я ничего не узнаю, надо вернуться в библиотеку.</t>
-  </si>
-  <si>
     <t>Главный портал страны просто исчез. На его месте осталась только воронка. Никто не знает, что случилось. Вся столица на ушах. Не понятно как теперь торговать и путешествовать. Зачем теперь людям жить в столице, если никто и никогда не сможет починить или построить новый портал? Королева просто в ярости! И чем теперь заниматься целому ордену познающих?</t>
   </si>
   <si>
-    <t>Вы знаете где Архимагистр?</t>
-  </si>
-  <si>
     <t>Никто не видел моего отца?</t>
   </si>
   <si>
     <t>…ага…</t>
   </si>
   <si>
-    <t>Все встреченные люди отвечали, что не знают где он или где его искать.</t>
-  </si>
-  <si>
     <t>Scene The General Hall of the Order</t>
   </si>
   <si>
@@ -579,36 +321,459 @@
     <t>Сегодня случилась трагедия! Наш бесценный портал был разрушен. Это огромная потеря для всего королевства. Теперь мы не можем поддерживать нашу армию в войне с орками. И виноват во всём наш бывший архимагистр Кристофер Манн! Из-за его профнепригодности он не смог правильно произнести заклинание открытия портала. Я, как новый архимагистр, отстраняю Кристоффера Манна от должности!</t>
   </si>
   <si>
-    <t>На данный момент о Граугалорафоре знают лишь немногие из нашего ордена.</t>
-  </si>
-  <si>
-    <t>5.1b</t>
-  </si>
-  <si>
-    <t>Я вбежала в свою комнату, но вместо отца там находился череп.</t>
-  </si>
-  <si>
     <t>Sad</t>
   </si>
   <si>
     <t>Грусть</t>
   </si>
   <si>
-    <t>Сэр черепушка?</t>
-  </si>
-  <si>
-    <t>Я подслушал разговоры. Судя по всему твой отец угодил в сломанный портал. И если это действительно так, то он считай труп. Его могло разорвать на 1000 кусочков, каждый из которых может оказаться где угодно. И в центре вулкана, и в желудке у дракона, и даже в измерении вязаных носков. Шансов выжить у него практически не было.</t>
-  </si>
-  <si>
-    <t>Мне очень жаль( Оставить тебя поплакать наедине?</t>
-  </si>
-  <si>
-    <t>Ты за кого меня принимаешь?! Сперва надо выяснить, что случилось на самом деле! Eсли есть шанс, что мой отец жив, я обязательно его отыщу! Отец явно не мог вот так просто исчезнуть!</t>
-  </si>
-  <si>
     <t>И что же ты будешь делать?</t>
   </si>
   <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Что ж, дитя мое, вот и пришло время твоего экзамена. Уже завтра тебе предстоит доказать, достойна ли ты стать магистром. Помни…</t>
+  </si>
+  <si>
+    <t>Irritation</t>
+  </si>
+  <si>
+    <t>Раздажение</t>
+  </si>
+  <si>
+    <t>Ну что ж, раз тебе не нужен альманах со всеми заклинаниями белой магии…</t>
+  </si>
+  <si>
+    <t>Приветствую Вас, архимагистр!</t>
+  </si>
+  <si>
+    <t>Орки тебя задери, Варгус! Не делай так больше!</t>
+  </si>
+  <si>
+    <t>Gloomy smile</t>
+  </si>
+  <si>
+    <t>Глумливая улыбка</t>
+  </si>
+  <si>
+    <t>И тебе я желаю здравствовать, юная Инесса. Архимагистр, вижу, вы даёте наставления дочери перед её испытанием. Право, нужно ли это? Уж своему отцу она легко сдаст экзамен.</t>
+  </si>
+  <si>
+    <t>Sarcasm</t>
+  </si>
+  <si>
+    <t>Сарказм</t>
+  </si>
+  <si>
+    <t>Благодарю за твою заботу, Варгус. Но будь уверен,  я не собираюсь делать поблажки своей дочери. Она будет сдавать экзамен по всей строгости.</t>
+  </si>
+  <si>
+    <t>Прошу прощения, сейчас мне придется покинуть вас. Меня ждут… Дела.</t>
+  </si>
+  <si>
+    <t>Instructively</t>
+  </si>
+  <si>
+    <t>Назидательно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да-да, это очень забавно. Я верю, что ты сможешь сдать с первого раза. Но, пожалуйста, отнесись к подготовке серьёзнее! </t>
+  </si>
+  <si>
+    <t>Помню-помню, я должна быть достойной всех прежних магистров.</t>
+  </si>
+  <si>
+    <t>Я хотел сказать, помни, все прежние магистры когда-то были учениками как ты. Все они начинали с простых зелий и заклинаний и медленно двигались к сложному. Уверен, что и так прекрасно готова, но для уверенности хочу вручить тебе один подарок.</t>
+  </si>
+  <si>
+    <t>Книга? Отец, ты ведь помнишь, что с тех пор как ты стал магистром, я не покидала библиотеку. Три года года я была хранителем знаний и все книги заклинаний знаю наизусть.</t>
+  </si>
+  <si>
+    <t>Не нужен… Что? Альманах?! Нужен, отец, очень нужен!</t>
+  </si>
+  <si>
+    <t>Вот, возьми. Итак, завтра тебя ждет важное испытание.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты так добр, Варгус. </t>
+  </si>
+  <si>
+    <t>А ведь в моей помяти еще жив день моего собственного экзамена. И то было совсем не просто, мое обучение растянулось на долгих девять лет, и я стал магистром лишь с третьей попытки.</t>
+  </si>
+  <si>
+    <t>Право, отец, я знаю, он - твоя правая рука. Но у меня от него мурашки по коже.</t>
+  </si>
+  <si>
+    <t>Может, нрав у него и скверный, но он отлично умеет справляться с бумагами. Без него я не смог бы заниматься своими исследованиями.</t>
+  </si>
+  <si>
+    <t>Любопытно, а нравится ли ему заниматься "бумагами"?</t>
+  </si>
+  <si>
+    <t>Оставим разговоры оВаргусе, дочь, настало время готовиться к экзамену.</t>
+  </si>
+  <si>
+    <t>К чему? К какому экзамену?Ах, да, к экзамену!</t>
+  </si>
+  <si>
+    <t>Сколько всего. Может, стоит сделать шпаргалку к завтрашнему экзамену?</t>
+  </si>
+  <si>
+    <t>Прекрасное утро. Ну что ж, пора на экзамен.</t>
+  </si>
+  <si>
+    <t>Доброго утра, отец. Ну что? Я готова побыстрее сдать этот твой экзамен и после пойдём праздновать.</t>
+  </si>
+  <si>
+    <t>Инесса! Я в ужасе, где же твоё смирение перед традициями?</t>
+  </si>
+  <si>
+    <t>Сегодня состоится экзамен на звание Магистра Ордена Познающих. Экзаменуемая Инесса Кристоферна Манн. Вы готовы к сдаче?</t>
+  </si>
+  <si>
+    <t>Да, сэр!</t>
+  </si>
+  <si>
+    <t>Тем более что ты сам и будешь моим экзаменатором.</t>
+  </si>
+  <si>
+    <t>Ах, да. Признаюсь, я всегда был очень мягок с тобой. Поэтому я принял тяжелое решение, и экзамен будет принимать другой архимагистр. Точнее гоовря, бывший архимагистр.</t>
+  </si>
+  <si>
+    <t>ПРИВЕТСТВУЮ, СМЕРТНАЯ!!!</t>
+  </si>
+  <si>
+    <t>Эм… Простите, я на секундочку.</t>
+  </si>
+  <si>
+    <t>Оте-е-ец?! У нас тут череп летает! Говорящий!</t>
+  </si>
+  <si>
+    <t>Ты мне не объяснишь, отуда это взялось?!</t>
+  </si>
+  <si>
+    <t>Дело в том, что во время своих исследований, я случайно наткнулся на магический сигнал из катакомб нашего ордена. По сигналу я вышел на гроб первого архимагистра, внутри которого уже почти 700 лет томился сэр Граугалорафор. Оказывается, наш основатель успешно провёл ритуал бессмертия, но из-за затраченных на ритуал сил не мог двигаться целый год.</t>
+  </si>
+  <si>
+    <t>На данный момент о сэре Граугалорафоре знают лишь немногие из нашего ордена.</t>
+  </si>
+  <si>
+    <t>И это не самое главное! Оказывается, побочным эффектом заклинания является то, что бессмертной остаётся только голова!</t>
+  </si>
+  <si>
+    <t>А он точно сможет принять у меня экзамен? У него всё в порядке с...? Ну, то есть, он в своем уме?</t>
+  </si>
+  <si>
+    <t>А сэр Гра… Гру… Слушай, а тебе не кажется, что признести егог имя - уже целое испытание?</t>
+  </si>
+  <si>
+    <t>Позвольте… Так Вы - наш основатель? В наших старинных свёртках ваше имя записано по-другому. Вас все знают под именем Рофар.</t>
+  </si>
+  <si>
+    <t>Полагаю, что во всём виноват писарь. Мало того, что имя не смог правильно записать, еще и концовку исковеркал.</t>
+  </si>
+  <si>
+    <t>А ведь какие прекрасные имена были в мое время: "Граугалорагран", "Дизоаунаминаболь"!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не то, что сейчас. Инесса, Кристофер… Обрубки какие-то. Никакого намека на величие! Прежних прекрасных имен теперь и не сыщешь. </t>
+  </si>
+  <si>
+    <t>Удивительно, с чего бы? Ведь их так легко запомнить.</t>
+  </si>
+  <si>
+    <t>Ну ладно. К экзамену готова? Вопросы есть?</t>
+  </si>
+  <si>
+    <t>Странно, что архимагистр лично занимается открытием портала. Мелковата работа для его чина.</t>
+  </si>
+  <si>
+    <t>О нет! Я ещё на 27-ом году погребения пообещал себе, что никому и никогда не расскажу об этом заклинании!</t>
+  </si>
+  <si>
+    <t>Если бы у тебя была пара свободных лет, я бы с радостью тебе всё рассказал! Как  я сражался с драконами, перевернул горы или уничтожил измерение с демонами..., но нет. Наше дело - прежде всего, поэтому сперва я приму у тебя экзамен, а потом, может быть, ты удостоишься беседы со мной, недоросль.</t>
+  </si>
+  <si>
+    <t>Ты что же, решила схитрить? И с кем? Со мной! Закатай как левый рукав.</t>
+  </si>
+  <si>
+    <t>Увы! Раз ты списывала, значит, тебе потребуется еще года три, чтобы как следует подготовиться к этому экзамену! Плохо! Очень плохо, я разочарован! Незачет!</t>
+  </si>
+  <si>
+    <t>Ну более-менее. Хотя, мы же с тобой понимаем, что теория - это далеко не всё. Настоящее испытание заключается в демонстрации практических навыков!</t>
+  </si>
+  <si>
+    <t>Вот тебе кристаллик флюорита и перо. Да-да, этот кристалл является основой всех порталов. Цель экзамена - с помощью кристаллика телепортировать вот это перо на соседний стол.</t>
+  </si>
+  <si>
+    <t>Да это и ребенок сможет! Я уже три года разрабатываю схему постройки настоящего портала! А Вы мне предлагаете перо телепортировать?</t>
+  </si>
+  <si>
+    <t>Значит, ты и впрявь неразумное дитя! Множество учёных и инженеров пытались повторить постройку портала. И все сошлись на том, что это невозможно! Порталы могли строить только древние! Ныне умения строить порталы безвозвратно утеряны!</t>
+  </si>
+  <si>
+    <t>Я изучала отчеты тех, кто пытался строить порталы, ведь все они аккуратно хранятся в нашей библиотеке. И везде, во всех расчетах, предполагалось, что порталы не будут двигаться. Однако, если представить, что порталы не стоят на месте, а перемещаются в каком-то невидимом поле, то можно соединиться с соседними построенными порталами безопасным туннелем! Просто посмотрите на мои расчёты! Они лежат на моём рабочем столе в архиве библиотеки.</t>
+  </si>
+  <si>
+    <t>Если порталы действительно перемещаются, то я орочья кормилица! Что за вздор! Это настолько нелепое предположение,  что я даже соглашусь взглянуть на твои формулы!</t>
+  </si>
+  <si>
+    <t>Но повторюсь, сделаем мы это только после экзамена!</t>
+  </si>
+  <si>
+    <t>Не выходит? Ай-ай-ай, какая досада…</t>
+  </si>
+  <si>
+    <t>Стой! Довольно! Вот же дерзкая девчонка, любишь опасные эксперимены? Прямо как я до своего преображения.</t>
+  </si>
+  <si>
+    <t>Что-то не так! Телепортация работает иначе, почему…</t>
+  </si>
+  <si>
+    <t>Вдруг всё здание сильно тряхнуло! Несколько случайных объектов, так же как и перо, стали с шипением телепортироваться. В коридорах ордена слышатся крики ужаса.</t>
+  </si>
+  <si>
+    <t>Инесса? Что ты натворила?!</t>
+  </si>
+  <si>
+    <t>Нет, без сомнения, это была я! Я всегда знала, что обладаю особенной силой.</t>
+  </si>
+  <si>
+    <t>Маг убежал дальше по коридору, врываясь в аудитории и повторяя свои слова.</t>
+  </si>
+  <si>
+    <t>Нет, едва ли это я, как я могла…</t>
+  </si>
+  <si>
+    <t>Постойте! Там же у портала мой отец! С ним всё в порядке?</t>
+  </si>
+  <si>
+    <t>Отец в порядке! Он должен быть невредим! Из этого окна видно  городской портал, пропустите, я должна увидеть! Да пропустите же!</t>
+  </si>
+  <si>
+    <t>Святые небеса! Портала действительно больше нет! И самое чудовищное, что открывать его мог только мой отец.</t>
+  </si>
+  <si>
+    <t>Нет, не плакать, сейчас нельзя!</t>
+  </si>
+  <si>
+    <t>Прыгнуть прямо из окна и наколдовать себе безопасное приземление.</t>
+  </si>
+  <si>
+    <t>Не делать глупостей и бежать по лестнице.</t>
+  </si>
+  <si>
+    <t>Инесса разбилась насмерть. Весьма обидная смерть!</t>
+  </si>
+  <si>
+    <t>Откуда в дороге столько дыр? Будто камни повырывали... Может, они тоже телепортировались?</t>
+  </si>
+  <si>
+    <t>Наконец-то, вот и портал. И стража уже прибыла! Как же мне прорваться к порталу?</t>
+  </si>
+  <si>
+    <t>Стоять!</t>
+  </si>
+  <si>
+    <t>Прохода нет!</t>
+  </si>
+  <si>
+    <t>Отца не видно. Где же он?</t>
+  </si>
+  <si>
+    <t>Постой! Ты Инесса? Дочь сэра Кристофера Манна?</t>
+  </si>
+  <si>
+    <t>Почему они так странно смотрят на меня? Этот взгляд… Что здесь творится?!</t>
+  </si>
+  <si>
+    <t>Нет... А вы моего отца не видели? Он такой… Ну, в сером плаще…</t>
+  </si>
+  <si>
+    <t>Странно, они как будто сразу сразу потеряли ко мне интерес.</t>
+  </si>
+  <si>
+    <t>Проваливай отсюда, пока не арестовали! Не мешай работать!</t>
+  </si>
+  <si>
+    <t>Голова разрывается от того, что миллион моих вопрос остается без ответов!</t>
+  </si>
+  <si>
+    <t>Может, с отцом всё в порядке и я зря тут волнуюсь? Может, он сейчас ищет меня в здании ордена? Находясь тут, я ничего не узнаю, надо вернуться в библиотеку.</t>
+  </si>
+  <si>
+    <t>Вы знаете, где Архимагистр?</t>
+  </si>
+  <si>
+    <t>Неужели никто не знает?!</t>
+  </si>
+  <si>
+    <t>О боги,я и забыла об это сэре Гр… Гра…Как там его?</t>
+  </si>
+  <si>
+    <t>Сэр основатель?</t>
+  </si>
+  <si>
+    <t>Я подслушал разговоры. Судя по всему, твой отец угодил в сломанный портал. И если это действительно так, ему конец. Его могло разорвать на тысячу кусочков, каждый из которых может оказаться где угодно. И в центре вулкана, и в желудке у дракона, и даже в измерении вязаных носков. Шансов выжить у него практически не было.</t>
+  </si>
+  <si>
+    <t>Сочувствую твоему горю. Желаешь поскорбеть в одиночестве?</t>
+  </si>
+  <si>
+    <t>Что за вздор?! Сперва надо выяснить, что случилось на самом деле! Eсли есть шанс, что мой отец жив, я обязательно его отыщу! Я верю, что он жив!</t>
+  </si>
+  <si>
+    <t>Resolutely</t>
+  </si>
+  <si>
+    <t>Решительно</t>
+  </si>
+  <si>
+    <t>Отправиться в измерение Вязаных носков и найти отца.</t>
+  </si>
+  <si>
+    <t>Спросить у Черепа, как определить место, куда мог телепортироваться отец.</t>
+  </si>
+  <si>
+    <t>Обыскать кабинет отца.</t>
+  </si>
+  <si>
+    <t>Как попасть в измерение Вязаных носков?</t>
+  </si>
+  <si>
+    <t>Я надеюсь, это шутка?</t>
+  </si>
+  <si>
+    <t>Нет, я серьезно.</t>
+  </si>
+  <si>
+    <t>Дитя, боюсь, твой разум помутился от горя. Отправляться в это измерение - чистое самоубийство, тебе ведь это известно. Прошу, подумай еще раз!</t>
+  </si>
+  <si>
+    <t>Увы, нельзя недооценивать опасность этого измерения. Спустя два месяца поисков Инесса пропала без вести. Все-таки не стоило бросаться, сломя голову, в изменерие, которого даже не существует.</t>
+  </si>
+  <si>
+    <t>Шутка, конечно. Простите, я просто в отчаянии.</t>
+  </si>
+  <si>
+    <t>Сэр Основатель, я умоляю, помогите мне понять, куда могло занести отца?</t>
+  </si>
+  <si>
+    <t>Я понимаю твои чувства, дитя. Но для этого нам потребуется кое-что. Ничего серьезного, мелочь, всего лишь действующий портал.</t>
+  </si>
+  <si>
+    <t>Ах, да. И лаборатория.</t>
+  </si>
+  <si>
+    <t>Можно воспользоваться лабораторией ордена! А портал я построю сама! Вы же помните о моих чертежах?</t>
+  </si>
+  <si>
+    <t>Тише, богиня невозможных порталов, не торопись. В твоем плане есть одно "но".</t>
+  </si>
+  <si>
+    <t>Какое же?!</t>
+  </si>
+  <si>
+    <t>Цена. Ты хоть представляешь, сколько для этого поребуется флюорита? Орден ни за что не одобрит такие траты, особенно ради сомнительного эксперимента.</t>
+  </si>
+  <si>
+    <t>Но нужно же что-то делать.</t>
+  </si>
+  <si>
+    <t>Мы должны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ох, я уже отвык от того, как упрямы могут быть молодые. </t>
+  </si>
+  <si>
+    <t>Ну вот что…</t>
+  </si>
+  <si>
+    <t>Давай пока остановимся на хоть немного реалистичном плане.</t>
+  </si>
+  <si>
+    <t>Возможно, там мы наткнемся на подсказку.</t>
+  </si>
+  <si>
+    <t>Что ж... Стоит проверить кабинет отца.</t>
+  </si>
+  <si>
+    <t>Сделаю единственное, что теперь имеет смысл.</t>
+  </si>
+  <si>
+    <t>Полно, не уговаривайте меня, я уже все решила. Мой отец наверняка там и я его найду. Как попасть в измерение Вязаных носков, Вы мне скажете или нет?</t>
+  </si>
+  <si>
+    <t>Какой странный документ…</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Заинтересованно</t>
+  </si>
+  <si>
+    <t>Что тут написано?</t>
+  </si>
+  <si>
+    <t>Хм-м-м… Договор на покупку флюорита. Но зачем он Кристоферу в таком количестве?</t>
+  </si>
+  <si>
+    <t>Ох, отец… Он знал о моих экспериментах, должно быть, весь этот флюорит был для меня.</t>
+  </si>
+  <si>
+    <t>Посмотри на имя поставщика.</t>
+  </si>
+  <si>
+    <t>Гном Карим…</t>
+  </si>
+  <si>
+    <t>Нет в королевстве более влиятельного горняка, чем он. О, а что это внизу? Шифр… Сможешь прочитать?</t>
+  </si>
+  <si>
+    <t>Попытаться расшифровать</t>
+  </si>
+  <si>
+    <t>Не сейчас.</t>
+  </si>
+  <si>
+    <t>Все же удивительным человеком был твой отец. Загадка, как ему удавалось заниматься исследованиями, следить за странными делами королевства и при этом оставаться тебе хорошим родителем.</t>
+  </si>
+  <si>
+    <t>Не говорите о нем так, будто он уже умер!</t>
+  </si>
+  <si>
+    <t>Постойте… О каких странных делах Вы говорите?</t>
+  </si>
+  <si>
+    <t>О, да ты не знаешь! Твой отец заметил, что в королевстве стало появляться слишком много темных культов. И что странно, их совсем не трогают власти. Вот так Кристофер и наткнулся на меня, стремясь решить эту загадку.</t>
+  </si>
+  <si>
+    <t>Признаться, я был несколько разочарован, когда понял, что меня обнаружили по чистой случайности.</t>
+  </si>
+  <si>
+    <t>Ну раз отец просит, загляну в его книгу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приветствую тебя, путник. К счастью твоему (или, быть может, к неудаче), дорога привела тебя в королевство Альфарах.
+ Страна наша прекрасна, но времена, увы, не спокойные. Добрый король наш скончался от хвори, и теперь на троне восседает его молодая вдова. И непросто ей приходится: на севере, со стороны Карпатии, альфарах атакуют орды орков,  лишь доблестный Аргуз, деверь "молодой" королевы, сдерживает врагов своей армией. А юный принц, сын почившего государя, исчез в неизвестном направлении. Можно ли ждать добра в это тяжелое время? Вся надежда на орден познающих и их магистра Кристофера Манна, они бережно хранят покой страны из столицы, лишь в их власти открывать порталы, давать проход торговым караванам и армии обороны. Следуй вперед, путник, в самое сердце столицы, где Кристофер готовит свою дочь Инессу к экзамену на магистра. Сможет ли она его сдать? Вот и увидим, но кое-кто здесь очень этого не хочет. </t>
+  </si>
+  <si>
+    <t>My child, the day of your exam has come. In the evening, you will already be a recognized master and we can celebrate.
+My child, the day of your exam has come. In the evening, you will already be a recognized master and we can celebrate.
+My child, the day of your exam has come. In the evening, you will already be a recognized master and we can celebrate.</t>
+  </si>
+  <si>
+    <t>实验室;
+ 实验室;
+ 实验室;
+ 实验室</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
     <t>Background</t>
   </si>
   <si>
@@ -627,35 +792,16 @@
     <t>Black</t>
   </si>
   <si>
-    <t>GGThoughts</t>
+    <t>InessaSilently</t>
   </si>
   <si>
     <t>Narrator</t>
   </si>
   <si>
-    <t>章</t>
-  </si>
-  <si>
-    <t>Карта.Рассказ о стране.
-Война с орками
-Гибель героя-короля и его первенца в войне с орками
-Столица.
-Говорят что один орк-шаман сумел остановить всю армию короля. Как такое возможно?
-Рассказ о новой королеве и её сыне
-Ордене познающих и порталах
-О ученике Януса Кристофере и его звании Магистра в этом ордене</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>My child, the day of yo.
-ur exam has come. In the evening, you will already be a recognized master and w.
-e can celebrate.</t>
-  </si>
-  <si>
-    <t>实验实
-验室室</t>
+    <t>Choise</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
   </si>
 </sst>
 </file>
@@ -799,7 +945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,6 +1200,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1397,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1263,12 +1427,6 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1276,15 +1434,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1335,6 +1500,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1627,16 +1795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
@@ -1650,10 +1818,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -1662,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1677,62 +1845,80 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>251</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1741,401 +1927,472 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>4</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>1</v>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2143,170 +2400,192 @@
         <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="F41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
-        <v>1</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="G45" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>69</v>
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>80</v>
+      <c r="G52" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="6" t="s">
         <v>0</v>
       </c>
@@ -2314,18 +2593,21 @@
         <v>2</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="6" t="s">
         <v>0</v>
       </c>
@@ -2333,604 +2615,630 @@
         <v>2</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>19</v>
+        <v>46</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>81</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18" t="s">
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G61" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>7</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>10</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>14</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>15</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="C67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="C79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="G81" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>1.4</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F82" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G83" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>115</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G88" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F89" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C90" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E90" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="G91" s="3" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C92" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="G93" s="3" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C94" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G95" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F98" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F99" s="3" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F100" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>17</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G101" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,398 +3246,888 @@
         <v>2</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C104" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>51</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>18</v>
+      </c>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>20</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>155</v>
+        <v>254</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="G109" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="G110" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="G111" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F112" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F113" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>6</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>201</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G116" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C117" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>27</v>
+      <c r="F118" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G118" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F120" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E119" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>22</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G120" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E121" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G121" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C122" s="3" t="s">
+      <c r="F122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F122" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="F123" s="18"/>
+      <c r="E123" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G123" s="3" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E124" s="3" t="s">
-        <v>70</v>
+      <c r="B124" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="G125" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F125" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C126" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D126" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E126" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G127" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G128" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>7</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>199</v>
+      <c r="B129" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C130" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>23</v>
+      </c>
       <c r="C131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>24</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G132" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C135" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="C137" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F137" s="3" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>190</v>
-      </c>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F138" s="3" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C139" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F139" s="3" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C140" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>7.1</v>
+      <c r="C141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>7.2</v>
+      <c r="C142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C144" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F146" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C157" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C159" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C162" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C163" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F169" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F170" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C171" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E173" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3337,24 +4135,36 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List!$D$3:$D$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>F23:F24 F27 F4:F21 F29:F69 F71:F92 F94 F96:F106 F117:F120 F122:F126 F130:F132 F134:F140</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C92 C94 C96:C106 C117:C120 C122:C123 C126 C130:C132 C134:C140</xm:sqref>
+          <xm:sqref>C92 C94:C104 C114:C117 C119:C120 C123 C126:C128 C130:C136 C3:C90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D92 D94 D96:D106 D117:D120 D122:D123 D126 D130:D132 D134:D140</xm:sqref>
+          <xm:sqref>D92 D94:D104 D114:D117 D119:D120 D123 D126:D128 D130:D136 D3:D90</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$5:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>F126:F136 F119 F121 F123 F114:F117 F94:F98 F100:F104 F92 F90 F4:F88</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F3 F89 F91 F93 F99 F120 F111:F113 F118 F105:F108 F122 F124:F125</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>F109:F110 F137:F139</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3373,18 +4183,18 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="17" style="23" customWidth="1"/>
-    <col min="6" max="8" width="50.7109375" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="17" style="20" customWidth="1"/>
+    <col min="6" max="8" width="50.7109375" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -3393,7 +4203,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -3411,22 +4221,22 @@
     <row r="2" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -3435,10 +4245,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3447,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3462,19 +4272,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3486,13 +4296,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -3504,13 +4314,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3519,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3531,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3543,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3558,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3570,23 +4380,17 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>List!$D$3:$D$16</xm:f>
-          </x14:formula1>
-          <xm:sqref>E8:E10 E12:E19</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$B$3:$B$32</xm:f>
@@ -3605,6 +4409,18 @@
           </x14:formula1>
           <xm:sqref>B7:B19</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$5:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>E8:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$5:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>E12:E19</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3613,209 +4429,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
       <c r="C3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="F7" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>203</v>
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>204</v>
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="280">
   <si>
     <t>Center</t>
   </si>
@@ -802,6 +802,66 @@
   </si>
   <si>
     <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>CleareAll</t>
+  </si>
+  <si>
+    <t>Say</t>
+  </si>
+  <si>
+    <t>SetBackground</t>
+  </si>
+  <si>
+    <t>ShowCharacter</t>
+  </si>
+  <si>
+    <t>ShowImage</t>
+  </si>
+  <si>
+    <t>HideCharacter</t>
+  </si>
+  <si>
+    <t>HideAllCharacters</t>
+  </si>
+  <si>
+    <t>Инструкция</t>
+  </si>
+  <si>
+    <t>Удаляет задник и персонажей со сцены</t>
+  </si>
+  <si>
+    <t>Показывает задник и выводит текст по середине экрана(если текст задан)</t>
+  </si>
+  <si>
+    <t>Устанавливает новый задник</t>
+  </si>
+  <si>
+    <t>На сцене появляется новый персонаж. Надо указать имя персонажа, его емоцию, положение на экране и направление взгляда.</t>
+  </si>
+  <si>
+    <t>Удаляет персонажа со сцены</t>
+  </si>
+  <si>
+    <t>Удаляет всех персонажей со сцены</t>
+  </si>
+  <si>
+    <t>(Действие по умолчанию. Так же можно оставить строку в Function пустой.) Персонаж произносит реплику. Нужно имя персонажа и его текст.</t>
+  </si>
+  <si>
+    <t>Произносит текст от персонажа, чье имя ещё не известно игроку. Нужен персонаж и его текст.</t>
+  </si>
+  <si>
+    <t>Добавляет выбор для игрока. В скобках указываем к какой сцене приведёт выбор игрока.</t>
+  </si>
+  <si>
+    <t>Choise:Номер</t>
+  </si>
+  <si>
+    <t>SayByName:Имя</t>
   </si>
 </sst>
 </file>
@@ -945,7 +1005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,12 +1275,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1397,7 +1451,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1449,7 +1503,11 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1797,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4135,7 +4193,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
@@ -4162,15 +4220,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$D$3:$D$19</xm:f>
+            <xm:f>List!$B$3:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>F109:F110 F137:F139</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$B$3:$B$32</xm:f>
+            <xm:f>List!$D$3:$D$19</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F109:F110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>F137:F139</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4429,10 +4493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,9 +4504,11 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="135.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4455,8 +4521,14 @@
       <c r="F1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4472,8 +4544,14 @@
       <c r="F3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4486,11 +4564,17 @@
       <c r="D4" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="26" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4503,11 +4587,17 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -4517,11 +4607,17 @@
       <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="26" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -4531,11 +4627,17 @@
       <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="26" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -4545,8 +4647,15 @@
       <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="25"/>
+      <c r="H8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -4556,8 +4665,14 @@
       <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -4567,8 +4682,14 @@
       <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -4578,8 +4699,14 @@
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -4590,7 +4717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -4601,7 +4728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -4612,7 +4739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>56</v>
       </c>
@@ -4623,7 +4750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>81</v>
       </c>
@@ -4662,9 +4789,6 @@
       </c>
       <c r="C19" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="281">
   <si>
     <t>Center</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>SayByName:Имя</t>
+  </si>
+  <si>
+    <t>Function</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1454,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1465,12 +1468,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1481,26 +1478,8 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1508,6 +1487,37 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1853,2338 +1863,2354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="50.85546875" style="3" customWidth="1"/>
-    <col min="10" max="17" width="9.140625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="16.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="50.85546875" style="18" customWidth="1"/>
+    <col min="11" max="18" width="9.140625" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="D6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="3" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="G41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
+    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="s">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="6" t="s">
+    <row r="45" spans="1:8" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6" t="s">
+    <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="G46" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6" t="s">
+    <row r="48" spans="1:8" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="s">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="3" t="s">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="3" t="s">
+    <row r="51" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="6" t="s">
+    <row r="52" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="6" t="s">
+    <row r="53" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="6" t="s">
+    <row r="54" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H54" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6" t="s">
+    <row r="55" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="26" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3" t="s">
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
         <v>5</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="3" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
         <v>6</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D62" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
         <v>7</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="D63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D64" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H64" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="3" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A66" s="20">
         <v>8</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="3" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="20">
         <v>9</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="D68" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
         <v>10</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="D69" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="s">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D71" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="H71" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="19" t="s">
+    <row r="72" spans="1:8" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="H72" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="s">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D73" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="H73" s="18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="s">
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D74" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="H74" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="3" t="s">
+    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
         <v>11</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="D76" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="C77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3" t="s">
+    <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="D77" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
         <v>12</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="D78" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
         <v>13</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="D79" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>14</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="3" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>14</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="G80" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="20">
         <v>15</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3" t="s">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="G83" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="20">
         <v>16</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="3" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D85" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3" t="s">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D87" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G87" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="3" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F89" s="3" t="s">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G89" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3" t="s">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D90" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="F91" s="3" t="s">
+    <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G91" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="G92" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F93" s="3" t="s">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G93" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E94" s="3" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="3" t="s">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D95" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="3" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="G96" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C97" s="3" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D97" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="G97" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F98" s="3" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F99" s="3" t="s">
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G99" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D100" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="20">
         <v>17</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D102" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="G102" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="3" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D103" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="3" t="s">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D104" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="20">
         <v>18</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="H105" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="20">
         <v>20</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="3" t="s">
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G106" s="21" t="s">
+      <c r="H106" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
         <v>21</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="3" t="s">
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="H107" s="30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="3" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="H108" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F109" s="3" t="s">
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G109" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="H109" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F110" s="3" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F111" s="3" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="F112" s="3" t="s">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G112" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="21" t="s">
+      <c r="H112" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F113" s="3" t="s">
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G113" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G113" s="21" t="s">
+      <c r="H113" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="3" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D114" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="3" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D115" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="18" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D116" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="G116" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="3" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D117" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="F117" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="G117" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F118" s="3" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="H118" s="30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="3" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="G119" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="H119" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="20">
         <v>22</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="H120" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E121" s="3" t="s">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F121" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F122" s="3" t="s">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G122" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="H122" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C123" s="3" t="s">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D123" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="G123" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="3" t="s">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C124" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="G124" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="H124" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="F125" s="3" t="s">
+    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G125" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="H125" s="30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="3" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D126" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="3" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D127" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F128" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="3" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C129" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="3" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D130" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="G130" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="20">
         <v>23</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="D131" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="G131" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="20">
         <v>24</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E132" s="3" t="s">
+      <c r="D132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="C133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="3" t="s">
+    <row r="133" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D133" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="G133" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="3" t="s">
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D134" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C135" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E135" s="3" t="s">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D135" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C136" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" s="3" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D136" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F137" s="3" t="s">
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G137" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F138" s="3" t="s">
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G138" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F139" s="3" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G139" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C140" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D140" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" s="3" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D141" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C142" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="3" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D142" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="H142" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C143" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E143" s="3" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D143" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E144" s="3" t="s">
+    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D144" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="G144" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C145" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" s="3" t="s">
+    <row r="145" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D145" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="146" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="F146" s="3" t="s">
+    <row r="146" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G146" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="H146" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C147" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E147" s="3" t="s">
+    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D147" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="G147" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C148" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E148" s="3" t="s">
+    <row r="148" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D148" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C149" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="3" t="s">
+    <row r="149" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D149" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="G149" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="H149" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="3" t="s">
+    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="H150" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C151" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" s="3" t="s">
+    <row r="151" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D151" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="152" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C152" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" s="3" t="s">
+    <row r="152" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D152" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="G152" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="H152" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C153" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" s="3" t="s">
+    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D153" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="18" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="154" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="3" t="s">
+    <row r="154" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D154" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="G154" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="H154" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C155" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E155" s="3" t="s">
+    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D155" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F156" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" s="3" t="s">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C157" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E157" s="3" t="s">
+    <row r="157" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D157" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="G157" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="H157" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F158" s="3" t="s">
+    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="H158" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="159" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C159" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" s="3" t="s">
+    <row r="159" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D159" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="G159" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="H159" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C160" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="3" t="s">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D160" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" s="3" t="s">
+    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C162" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E162" s="3" t="s">
+    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D162" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C163" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" s="3" t="s">
+    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D163" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="G163" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="H163" s="18" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F164" s="3" t="s">
+    <row r="164" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G164" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="H164" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C165" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E165" s="3" t="s">
+    <row r="165" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D165" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C166" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E166" s="3" t="s">
+    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D166" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="G166" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="H166" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F167" s="3" t="s">
+    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G167" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="H167" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" s="3" t="s">
+    <row r="168" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G168" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F169" s="3" t="s">
+    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G169" s="3" t="s">
+      <c r="H169" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F170" s="3" t="s">
+    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G170" s="3" t="s">
+      <c r="H170" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C171" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E171" s="3" t="s">
+    <row r="171" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D171" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="G171" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="H171" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E172" s="3" t="s">
+    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D172" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E173" s="3" t="s">
+    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F173" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" s="3" t="s">
+      <c r="G173" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" s="18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C174" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" s="3" t="s">
+    <row r="174" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D174" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="G174" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="H174" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F175" s="3" t="s">
+    <row r="175" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G175" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="H175" s="18" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4198,43 +4224,43 @@
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C92 C94:C104 C114:C117 C119:C120 C123 C126:C128 C130:C136 C3:C90</xm:sqref>
+          <xm:sqref>D92 D94:D104 D114:D117 D119:D120 D123 D126:D128 D130:D136 D3:D90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D92 D94:D104 D114:D117 D119:D120 D123 D126:D128 D130:D136 D3:D90</xm:sqref>
+          <xm:sqref>E92 E94:E104 E114:E117 E119:E120 E123 E126:E128 E130:E136 E3:E90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$5:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>F126:F136 F119 F121 F123 F114:F117 F94:F98 F100:F104 F92 F90 F4:F88</xm:sqref>
+          <xm:sqref>G126:G136 G119 G121 G123 G114:G117 G94:G98 G100:G104 G92 G90 G4:G88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$3:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F3 F89 F91 F93 F99 F120 F111:F113 F118 F105:F108 F122 F124:F125</xm:sqref>
+          <xm:sqref>G2:G3 G89 G91 G93 G99 G120 G111:G113 G118 G105:G108 G122 G124:G125</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$B$3:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$3:$D$19</xm:f>
           </x14:formula1>
-          <xm:sqref>F109:F110</xm:sqref>
+          <xm:sqref>G109:G110 G137:G139</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$D$3:$D$19</xm:f>
+            <xm:f>List!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F137:F139</xm:sqref>
+          <xm:sqref>B2:B175</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4252,10 +4278,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="20"/>
-    <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="8" width="50.7109375" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="4" width="9.140625" style="15"/>
+    <col min="5" max="5" width="17" style="15" customWidth="1"/>
+    <col min="6" max="8" width="50.7109375" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
@@ -4495,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,10 +4587,10 @@
       <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="18" t="s">
         <v>252</v>
       </c>
       <c r="H4" t="s">
@@ -4584,10 +4610,10 @@
       <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>253</v>
       </c>
       <c r="H5" t="s">
@@ -4604,10 +4630,10 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="18" t="s">
         <v>254</v>
       </c>
       <c r="H6" t="s">
@@ -4624,10 +4650,10 @@
       <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="18" t="s">
         <v>255</v>
       </c>
       <c r="H7" t="s">
@@ -4644,10 +4670,10 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="17"/>
       <c r="H8" t="s">
         <v>267</v>
       </c>
@@ -4662,7 +4688,7 @@
       <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
@@ -4679,7 +4705,7 @@
       <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H10" t="s">
@@ -4696,10 +4722,10 @@
       <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="19" t="s">
         <v>278</v>
       </c>
       <c r="I11" t="s">
@@ -4713,7 +4739,7 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4724,7 +4750,7 @@
       <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4735,7 +4761,7 @@
       <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="282">
   <si>
     <t>Center</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/QfKcuJ_-vLaBZQ</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1869,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2331,6 +2334,9 @@
       </c>
       <c r="G29" s="18" t="s">
         <v>17</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="281">
   <si>
     <t>Center</t>
   </si>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>Любопытно, а нравится ли ему заниматься "бумагами"?</t>
-  </si>
-  <si>
-    <t>Оставим разговоры оВаргусе, дочь, настало время готовиться к экзамену.</t>
   </si>
   <si>
     <t>К чему? К какому экзамену?Ах, да, к экзамену!</t>
@@ -858,9 +855,6 @@
     <t>Добавляет выбор для игрока. В скобках указываем к какой сцене приведёт выбор игрока.</t>
   </si>
   <si>
-    <t>Choise:Номер</t>
-  </si>
-  <si>
     <t>SayByName:Имя</t>
   </si>
   <si>
@@ -868,6 +862,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/d/QfKcuJ_-vLaBZQ</t>
+  </si>
+  <si>
+    <t>Оставим разговоры о Варгусе, дочь, настало время готовиться к экзамену.</t>
   </si>
 </sst>
 </file>
@@ -1869,10 +1866,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:G18"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,13 +1887,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>4</v>
@@ -1925,19 +1922,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>2</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>2</v>
@@ -2231,6 +2228,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="D22" s="18" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>0</v>
@@ -2289,12 +2289,12 @@
         <v>14</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>17</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>17</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>14</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>18</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>18</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>47</v>
@@ -2709,7 +2709,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>18</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>18</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>18</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2972,7 +2972,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>18</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>18</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G89" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>64</v>
@@ -3175,15 +3175,15 @@
         <v>14</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="G91" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3197,12 +3197,12 @@
         <v>18</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G93" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>79</v>
@@ -3233,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,10 +3277,10 @@
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G99" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>2</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>1</v>
@@ -3342,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3356,7 +3356,7 @@
         <v>14</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3369,10 +3369,10 @@
         <v>35</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3380,16 +3380,16 @@
         <v>20</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="29"/>
       <c r="G106" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,16 +3397,16 @@
         <v>21</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
       <c r="G107" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3414,50 +3414,56 @@
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H108" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="G109" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H109" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H110" s="18" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G111" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="G112" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G113" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,7 +3491,7 @@
         <v>26</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3499,7 +3505,7 @@
         <v>26</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3518,10 +3524,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G118" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3535,7 +3541,7 @@
         <v>26</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3543,13 +3549,13 @@
         <v>22</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3560,15 +3566,15 @@
         <v>14</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G122" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3582,26 +3588,26 @@
         <v>26</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C124" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="G125" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3635,7 +3641,7 @@
         <v>14</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3643,18 +3649,18 @@
         <v>14</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C129" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3702,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -3716,7 +3722,7 @@
         <v>18</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3730,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3747,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -3766,26 +3772,26 @@
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G137" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G138" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G139" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G140" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -3810,7 +3816,7 @@
         <v>14</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -3824,7 +3830,7 @@
         <v>18</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,13 +3838,13 @@
         <v>1</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G143" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3852,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -3860,21 +3866,21 @@
         <v>1</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G145" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="4:8" ht="75" x14ac:dyDescent="0.25">
       <c r="G146" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H146" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
@@ -3888,7 +3894,7 @@
         <v>14</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -3902,7 +3908,7 @@
         <v>14</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="4:8" ht="45" x14ac:dyDescent="0.25">
@@ -3916,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
@@ -3924,7 +3930,7 @@
         <v>18</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="4:8" ht="45" x14ac:dyDescent="0.25">
@@ -3938,7 +3944,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -3952,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
@@ -3966,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -3980,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
@@ -3994,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
@@ -4002,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4016,7 +4022,7 @@
         <v>18</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
@@ -4024,7 +4030,7 @@
         <v>18</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4038,7 +4044,7 @@
         <v>18</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
@@ -4046,13 +4052,13 @@
         <v>1</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G160" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
@@ -4060,7 +4066,7 @@
         <v>14</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
@@ -4074,7 +4080,7 @@
         <v>14</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
@@ -4082,13 +4088,13 @@
         <v>2</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G163" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4096,7 +4102,7 @@
         <v>18</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4110,7 +4116,7 @@
         <v>14</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
@@ -4118,13 +4124,13 @@
         <v>2</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
@@ -4132,7 +4138,7 @@
         <v>18</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4140,23 +4146,23 @@
         <v>14</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G169" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G170" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="171" spans="4:8" ht="75" x14ac:dyDescent="0.25">
@@ -4170,7 +4176,7 @@
         <v>18</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
@@ -4184,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
@@ -4195,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="174" spans="4:8" ht="75" x14ac:dyDescent="0.25">
@@ -4209,7 +4215,7 @@
         <v>18</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4217,7 +4223,7 @@
         <v>18</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4528,7 +4534,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,13 +4557,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" t="s">
         <v>259</v>
       </c>
-      <c r="H1" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,16 +4577,16 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4594,16 +4600,16 @@
         <v>66</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4620,13 +4626,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4640,13 +4646,13 @@
         <v>17</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4660,13 +4666,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4681,10 +4687,10 @@
       </c>
       <c r="F8" s="17"/>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4698,10 +4704,10 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4715,10 +4721,10 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4732,10 +4738,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="I11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4849,18 +4855,18 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
         <v>202</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
         <v>230</v>
-      </c>
-      <c r="C24" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="270">
   <si>
     <t>Center</t>
   </si>
@@ -804,60 +804,21 @@
     <t>Functions</t>
   </si>
   <si>
-    <t>CleareAll</t>
-  </si>
-  <si>
-    <t>Say</t>
-  </si>
-  <si>
-    <t>SetBackground</t>
-  </si>
-  <si>
     <t>ShowCharacter</t>
   </si>
   <si>
-    <t>ShowImage</t>
-  </si>
-  <si>
     <t>HideCharacter</t>
   </si>
   <si>
-    <t>HideAllCharacters</t>
-  </si>
-  <si>
     <t>Инструкция</t>
   </si>
   <si>
-    <t>Удаляет задник и персонажей со сцены</t>
-  </si>
-  <si>
-    <t>Показывает задник и выводит текст по середине экрана(если текст задан)</t>
-  </si>
-  <si>
-    <t>Устанавливает новый задник</t>
-  </si>
-  <si>
     <t>На сцене появляется новый персонаж. Надо указать имя персонажа, его емоцию, положение на экране и направление взгляда.</t>
   </si>
   <si>
     <t>Удаляет персонажа со сцены</t>
   </si>
   <si>
-    <t>Удаляет всех персонажей со сцены</t>
-  </si>
-  <si>
-    <t>(Действие по умолчанию. Так же можно оставить строку в Function пустой.) Персонаж произносит реплику. Нужно имя персонажа и его текст.</t>
-  </si>
-  <si>
-    <t>Произносит текст от персонажа, чье имя ещё не известно игроку. Нужен персонаж и его текст.</t>
-  </si>
-  <si>
-    <t>Добавляет выбор для игрока. В скобках указываем к какой сцене приведёт выбор игрока.</t>
-  </si>
-  <si>
-    <t>SayByName:Имя</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -865,6 +826,12 @@
   </si>
   <si>
     <t>Оставим разговоры о Варгусе, дочь, настало время готовиться к экзамену.</t>
+  </si>
+  <si>
+    <t>Добавляет выбор для игрока.</t>
+  </si>
+  <si>
+    <t>Choice</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1833,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1857,7 @@
         <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>249</v>
@@ -2167,7 +2134,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>2</v>
@@ -2229,7 +2196,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>1</v>
@@ -2241,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2336,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3422,7 +3389,7 @@
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>257</v>
@@ -3433,7 +3400,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>257</v>
@@ -3771,6 +3738,9 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="G137" s="18" t="s">
         <v>257</v>
       </c>
@@ -3779,6 +3749,9 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="G138" s="18" t="s">
         <v>257</v>
       </c>
@@ -3787,6 +3760,9 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="G139" s="18" t="s">
         <v>257</v>
       </c>
@@ -4061,7 +4037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G161" s="18" t="s">
         <v>14</v>
       </c>
@@ -4069,7 +4045,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D162" s="18" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D163" s="18" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G164" s="18" t="s">
         <v>18</v>
       </c>
@@ -4105,7 +4081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="165" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D165" s="18" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4095,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D166" s="18" t="s">
         <v>2</v>
       </c>
@@ -4133,7 +4109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G167" s="18" t="s">
         <v>18</v>
       </c>
@@ -4141,7 +4117,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G168" s="18" t="s">
         <v>14</v>
       </c>
@@ -4149,7 +4125,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="G169" s="18" t="s">
         <v>257</v>
       </c>
@@ -4157,7 +4136,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="21" t="s">
+        <v>269</v>
+      </c>
       <c r="G170" s="18" t="s">
         <v>257</v>
       </c>
@@ -4165,7 +4147,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="171" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="D171" s="18" t="s">
         <v>2</v>
       </c>
@@ -4179,7 +4161,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D172" s="18" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4175,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F173" s="18" t="s">
         <v>40</v>
       </c>
@@ -4204,7 +4186,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="D174" s="18" t="s">
         <v>2</v>
       </c>
@@ -4218,7 +4200,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G175" s="18" t="s">
         <v>18</v>
       </c>
@@ -4270,7 +4252,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$H$2:$H$11</xm:f>
+            <xm:f>List!$H$2:$H$10</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B175</xm:sqref>
         </x14:dataValidation>
@@ -4534,12 +4516,12 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
@@ -4563,7 +4545,7 @@
         <v>259</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,7 +4568,7 @@
         <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4606,10 +4588,10 @@
         <v>251</v>
       </c>
       <c r="H4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" t="s">
         <v>264</v>
-      </c>
-      <c r="I4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,11 +4610,11 @@
       <c r="F5" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="H5" t="s">
-        <v>262</v>
+      <c r="H5" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4648,12 +4630,6 @@
       <c r="F6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -4668,12 +4644,6 @@
       <c r="F7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -4686,12 +4656,6 @@
         <v>20</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="H8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -4703,12 +4667,6 @@
       <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -4720,12 +4678,6 @@
       <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -4736,12 +4688,6 @@
       </c>
       <c r="D11" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
@@ -1832,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4515,12 +4515,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Act1" sheetId="1" r:id="rId1"/>
@@ -1832,11 +1832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="270">
   <si>
     <t>Center</t>
   </si>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>А он точно сможет принять у меня экзамен? У него всё в порядке с...? Ну, то есть, он в своем уме?</t>
-  </si>
-  <si>
-    <t>А сэр Гра… Гру… Слушай, а тебе не кажется, что признести егог имя - уже целое испытание?</t>
   </si>
   <si>
     <t>Позвольте… Так Вы - наш основатель? В наших старинных свёртках ваше имя записано по-другому. Вас все знают под именем Рофар.</t>
@@ -832,6 +829,9 @@
   </si>
   <si>
     <t>Choice</t>
+  </si>
+  <si>
+    <t>А сэр Гра… Гру… Слушай, а тебе не кажется, что признести его имя - уже целое испытание?</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1836,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,13 +1854,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>249</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>4</v>
@@ -1889,19 +1889,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>2</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>2</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>2</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>0</v>
@@ -2256,12 +2256,12 @@
         <v>14</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>18</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>47</v>
@@ -2676,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>14</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>18</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,9 +2789,6 @@
       <c r="D63" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="H63" s="18" t="s">
         <v>52</v>
       </c>
@@ -2807,7 +2804,7 @@
         <v>18</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,9 +2813,6 @@
       <c r="D65" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="H65" s="18" t="s">
         <v>53</v>
       </c>
@@ -2837,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,7 +2894,7 @@
         <v>18</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2917,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2928,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2939,7 +2933,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2953,7 +2947,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2967,7 +2961,7 @@
         <v>18</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -2981,7 +2975,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2995,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3012,7 +3006,7 @@
         <v>18</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3076,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3125,7 +3119,7 @@
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G89" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>64</v>
@@ -3142,15 +3136,15 @@
         <v>14</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="G91" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3164,12 +3158,12 @@
         <v>18</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G93" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H93" s="18" t="s">
         <v>79</v>
@@ -3200,7 +3194,7 @@
         <v>14</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3244,10 +3238,10 @@
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G99" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3266,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>2</v>
@@ -3283,7 +3277,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>1</v>
@@ -3309,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3323,7 +3317,7 @@
         <v>14</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3336,10 +3330,10 @@
         <v>35</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3347,16 +3341,16 @@
         <v>20</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="29"/>
       <c r="G106" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3364,16 +3358,16 @@
         <v>21</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
       <c r="G107" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,7 +3375,7 @@
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H108" s="30" t="s">
         <v>88</v>
@@ -3389,48 +3383,48 @@
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G111" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="G112" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H112" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G113" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H113" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3458,7 +3452,7 @@
         <v>26</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,7 +3466,7 @@
         <v>26</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3491,10 +3485,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G118" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3508,7 +3502,7 @@
         <v>26</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3516,13 +3510,13 @@
         <v>22</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3533,15 +3527,15 @@
         <v>14</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G122" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3555,26 +3549,26 @@
         <v>26</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C124" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="G125" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H125" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3608,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3616,18 +3610,18 @@
         <v>14</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C129" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G129" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3675,7 +3669,7 @@
         <v>14</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -3689,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3703,7 +3697,7 @@
         <v>18</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3720,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -3739,35 +3733,35 @@
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -3775,13 +3769,13 @@
         <v>1</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G140" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,7 +3786,7 @@
         <v>14</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -3806,7 +3800,7 @@
         <v>18</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -3814,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G143" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3834,7 +3828,7 @@
         <v>18</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -3842,21 +3836,21 @@
         <v>1</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G145" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="4:8" ht="75" x14ac:dyDescent="0.25">
       <c r="G146" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H146" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
@@ -3870,7 +3864,7 @@
         <v>14</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -3884,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="4:8" ht="45" x14ac:dyDescent="0.25">
@@ -3898,7 +3892,7 @@
         <v>18</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
@@ -3906,7 +3900,7 @@
         <v>18</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="4:8" ht="45" x14ac:dyDescent="0.25">
@@ -3920,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -3934,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
@@ -3948,7 +3942,7 @@
         <v>14</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="4:8" ht="60" x14ac:dyDescent="0.25">
@@ -3962,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
@@ -3976,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
@@ -3984,7 +3978,7 @@
         <v>14</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -3998,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
@@ -4006,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4020,7 +4014,7 @@
         <v>18</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
@@ -4028,13 +4022,13 @@
         <v>1</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G160" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -4042,7 +4036,7 @@
         <v>14</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -4056,7 +4050,7 @@
         <v>14</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -4064,13 +4058,13 @@
         <v>2</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G163" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4078,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4092,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -4100,13 +4094,13 @@
         <v>2</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -4114,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4122,29 +4116,29 @@
         <v>14</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="2:8" ht="75" x14ac:dyDescent="0.25">
@@ -4158,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -4172,7 +4166,7 @@
         <v>14</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
@@ -4183,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="2:8" ht="75" x14ac:dyDescent="0.25">
@@ -4197,7 +4191,7 @@
         <v>18</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -4205,7 +4199,7 @@
         <v>18</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4540,13 +4534,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" t="s">
         <v>258</v>
       </c>
-      <c r="H1" t="s">
-        <v>259</v>
-      </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4560,16 +4554,16 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,16 +4577,16 @@
         <v>66</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4609,13 +4603,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4629,7 +4623,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4802,18 +4796,18 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" t="s">
         <v>201</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
         <v>229</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="272">
   <si>
     <t>Center</t>
   </si>
@@ -832,6 +832,12 @@
   </si>
   <si>
     <t>А сэр Гра… Гру… Слушай, а тебе не кажется, что признести его имя - уже целое испытание?</t>
+  </si>
+  <si>
+    <t>HelpBook</t>
+  </si>
+  <si>
+    <t>Даёт доступ к книге подсказке</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1427,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1484,6 +1490,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1830,13 +1842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H147" sqref="H147"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,108 +1978,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="D7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="G8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>12</v>
+      <c r="H13" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2075,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>126</v>
+      <c r="H14" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2089,33 +2079,36 @@
         <v>2</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="D17" s="18" t="s">
         <v>2</v>
       </c>
@@ -2126,63 +2119,63 @@
         <v>20</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="D20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="18" t="s">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="18" t="s">
         <v>0</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="D20" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>2</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>46</v>
@@ -2191,92 +2184,95 @@
         <v>14</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>268</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="D22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>3</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="18" t="s">
+        <v>251</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>268</v>
+      </c>
       <c r="D24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="G24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>4</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C27" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" s="18" t="s">
         <v>0</v>
       </c>
@@ -2284,379 +2280,364 @@
         <v>14</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" s="18" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>14</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="G30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="18" t="s">
-        <v>135</v>
+      <c r="I31" s="18" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="D32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="F33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H33" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="18" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="18" t="s">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D36" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="18" t="s">
+      <c r="G36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D35" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18" t="s">
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D37" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D39" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D40" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="18" t="s">
+      <c r="G41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="18" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="G41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="18" t="s">
-        <v>1</v>
-      </c>
       <c r="G43" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="F44" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G44" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="20"/>
       <c r="D47" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="F47" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>40</v>
-      </c>
       <c r="G48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="18" t="s">
-        <v>1</v>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H49" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="18" t="s">
-        <v>2</v>
+      <c r="D50" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H51" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="18" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2670,55 +2651,76 @@
         <v>2</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="26" t="s">
+    <row r="57" spans="1:10" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="26" t="s">
+      <c r="G57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D58" s="18" t="s">
         <v>1</v>
       </c>
@@ -2726,153 +2728,153 @@
         <v>17</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D59" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="G60" s="18" t="s">
         <v>17</v>
       </c>
+      <c r="H60" s="18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
+        <v>5</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="20">
         <v>6</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="18" t="s">
+      <c r="E63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G63" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H63" s="18" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D62" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
-        <v>7</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D64" s="18" t="s">
         <v>1</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="20">
+        <v>7</v>
+      </c>
       <c r="D65" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" s="20">
-        <v>8</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D66" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="23"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="H67" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>1</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="20">
-        <v>10</v>
-      </c>
+      <c r="A69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
+        <v>9</v>
+      </c>
       <c r="D70" s="18" t="s">
         <v>1</v>
       </c>
@@ -2880,80 +2882,74 @@
         <v>18</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
+        <v>10</v>
+      </c>
       <c r="D71" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H72" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D73" s="18" t="s">
         <v>1</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D74" s="18" t="s">
-        <v>1</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H74" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D75" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>11</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="D76" s="18" t="s">
         <v>1</v>
       </c>
@@ -2961,26 +2957,26 @@
         <v>18</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="D77" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>1</v>
@@ -2989,296 +2985,290 @@
         <v>18</v>
       </c>
       <c r="H78" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="D79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
+        <v>12</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="20">
         <v>13</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="18" t="s">
+      <c r="D81" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G81" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H81" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
-        <v>14</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="18" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>14</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
+      <c r="G82" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
         <v>15</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H83" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D82" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="18" t="s">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="18" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="20">
-        <v>16</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D85" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H85" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="20">
+        <v>16</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="G86" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="18" t="s">
+    <row r="88" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G88" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D87" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" s="18" t="s">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D89" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G89" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H89" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="18" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="G89" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G91" s="18" t="s">
         <v>255</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D92" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="G93" s="18" t="s">
         <v>255</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D94" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D95" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="G95" s="18" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D98" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="18" t="s">
+      <c r="E98" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G97" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G98" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H98" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D99" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G99" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G101" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H99" s="18" t="s">
+      <c r="H101" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D100" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>17</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="18" t="s">
-        <v>252</v>
-      </c>
       <c r="D102" s="18" t="s">
         <v>1</v>
       </c>
@@ -3288,11 +3278,14 @@
       <c r="G102" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H102" s="18" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="20">
+        <v>17</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="D103" s="18" t="s">
         <v>2</v>
       </c>
@@ -3303,74 +3296,77 @@
         <v>14</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="18" t="s">
+        <v>252</v>
+      </c>
       <c r="D104" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>35</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H104" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D105" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D106" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
         <v>18</v>
-      </c>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H105" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
-        <v>20</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H106" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>21</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
+      <c r="F107" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G107" s="18" t="s">
         <v>254</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
+        <v>20</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>253</v>
+      </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
@@ -3378,100 +3374,100 @@
         <v>254</v>
       </c>
       <c r="H108" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="20">
+        <v>21</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H110" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="21" t="s">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G109" s="18" t="s">
+      <c r="G111" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H109" s="18" t="s">
+      <c r="H111" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="21" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G112" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H110" s="18" t="s">
+      <c r="H112" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G111" s="18" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H111" s="18" t="s">
+      <c r="H113" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="G112" s="18" t="s">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G114" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H112" s="30" t="s">
+      <c r="H114" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="G113" s="18" t="s">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G115" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H113" s="30" t="s">
+      <c r="H115" s="30" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D114" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D115" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D116" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D117" s="18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="18" t="s">
         <v>56</v>
@@ -3480,15 +3476,21 @@
         <v>26</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="G118" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="H118" s="30" t="s">
-        <v>185</v>
+        <v>26</v>
+      </c>
+      <c r="H118" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3496,166 +3498,157 @@
         <v>0</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G119" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="20">
-        <v>22</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>250</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G120" s="18" t="s">
         <v>254</v>
       </c>
       <c r="H120" s="30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D121" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="F121" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="20">
+        <v>22</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="G122" s="18" t="s">
         <v>254</v>
       </c>
       <c r="H122" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D123" s="18" t="s">
-        <v>0</v>
-      </c>
       <c r="F123" s="18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C124" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="G124" s="18" t="s">
         <v>254</v>
       </c>
       <c r="H124" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D125" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C126" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H126" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="G125" s="18" t="s">
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G127" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="H125" s="30" t="s">
+      <c r="H127" s="30" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D126" s="18" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D128" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F126" s="18" t="s">
+      <c r="E128" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G126" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="18" t="s">
+      <c r="G128" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D127" s="18" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D129" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127" s="18" t="s">
+      <c r="E129" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G127" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="18" t="s">
+      <c r="G129" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="18" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C129" s="20" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C131" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G129" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="18" t="s">
+      <c r="G131" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D130" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E130" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
-        <v>23</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G131" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="20">
-        <v>24</v>
-      </c>
       <c r="D132" s="18" t="s">
         <v>1</v>
       </c>
@@ -3668,11 +3661,11 @@
       <c r="G132" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H132" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="20">
+        <v>23</v>
+      </c>
       <c r="D133" s="18" t="s">
         <v>2</v>
       </c>
@@ -3682,78 +3675,87 @@
       <c r="G133" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="20">
+        <v>24</v>
+      </c>
       <c r="D134" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="18" t="s">
         <v>101</v>
       </c>
       <c r="G134" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="D135" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G135" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D135" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E135" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F135" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="H135" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D136" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="G136" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H136" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D137" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D138" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G137" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="H137" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="21" t="s">
         <v>268</v>
       </c>
@@ -3761,77 +3763,71 @@
         <v>256</v>
       </c>
       <c r="H139" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="H141" s="18" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D140" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D141" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G141" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="18" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D142" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D143" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F143" s="18" t="s">
-        <v>200</v>
-      </c>
       <c r="G143" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D144" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="G144" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="145" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D145" s="18" t="s">
         <v>1</v>
       </c>
@@ -3842,121 +3838,121 @@
         <v>14</v>
       </c>
       <c r="H145" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D146" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D147" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="146" spans="4:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="G146" s="18" t="s">
+    <row r="148" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G148" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H146" s="28" t="s">
+      <c r="H148" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D147" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="18" t="s">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D149" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G147" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" s="18" t="s">
+      <c r="G149" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D148" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148" s="18" t="s">
+    <row r="150" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D150" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" s="18" t="s">
+      <c r="G150" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="18" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="149" spans="4:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D149" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F149" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G150" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H150" s="18" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="151" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D151" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="152" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D152" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" s="18" t="s">
-        <v>114</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G152" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="4:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D153" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="G153" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="154" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D154" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G154" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
@@ -3964,43 +3960,49 @@
         <v>1</v>
       </c>
       <c r="F155" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D156" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G156" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D157" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G155" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" s="18" t="s">
+      <c r="G157" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="18" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G156" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="157" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D157" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F157" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G157" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" s="18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G158" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="4:8" ht="30" x14ac:dyDescent="0.25">
@@ -4014,29 +4016,29 @@
         <v>18</v>
       </c>
       <c r="H159" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D161" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="18" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D160" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F160" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H160" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G161" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" s="18" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -4044,161 +4046,183 @@
         <v>1</v>
       </c>
       <c r="F162" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G162" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D164" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G162" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" s="18" t="s">
+      <c r="G164" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D163" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F163" s="18" t="s">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D165" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G163" s="18" t="s">
+      <c r="G165" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="18" t="s">
+      <c r="H165" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="G164" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D165" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G165" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H165" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D166" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F166" s="18" t="s">
-        <v>228</v>
-      </c>
+    <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="G166" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H166" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D167" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G167" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D168" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G168" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="18" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G167" s="18" t="s">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H169" s="18" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="G168" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" s="18" t="s">
+    <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G170" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="21" t="s">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G169" s="18" t="s">
+      <c r="G171" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H169" s="18" t="s">
+      <c r="H171" s="18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="21" t="s">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="G170" s="18" t="s">
+      <c r="G172" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H170" s="18" t="s">
+      <c r="H172" s="18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D171" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F171" s="18" t="s">
+    <row r="173" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D173" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G171" s="18" t="s">
+      <c r="G173" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H171" s="18" t="s">
+      <c r="H173" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D172" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172" s="18" t="s">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D174" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G172" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" s="18" t="s">
+      <c r="G174" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F173" s="18" t="s">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G173" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H173" s="18" t="s">
+      <c r="G175" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D174" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F174" s="18" t="s">
+    <row r="176" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D176" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G174" s="18" t="s">
+      <c r="G176" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="18" t="s">
+      <c r="H176" s="18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="G175" s="18" t="s">
+    <row r="177" spans="7:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G177" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="18" t="s">
+      <c r="H177" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4212,25 +4236,31 @@
           <x14:formula1>
             <xm:f>List!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D92 D94:D104 D114:D117 D119:D120 D123 D126:D128 D130:D136 D3:D90</xm:sqref>
+          <xm:sqref>D94 D96:D106 D116:D119 D121:D122 D125 D128:D130 D132:D138 D3:D92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E92 E94:E104 E114:E117 E119:E120 E123 E126:E128 E130:E136 E3:E90</xm:sqref>
+          <xm:sqref>E94 E96:E106 E116:E119 E121:E122 E125 E128:E130 E132:E138 E3:E92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$5:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>G126:G136 G119 G121 G123 G114:G117 G94:G98 G100:G104 G92 G90 G4:G88</xm:sqref>
+          <xm:sqref>G128:G138 G121 G123 G125 G116:G119 G96:G100 G102:G106 G94 G92 G4:G90</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$3:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 G89 G91 G93 G99 G120 G111:G113 G118 G105:G108 G122 G124:G125</xm:sqref>
+          <xm:sqref>G2:G3 G91 G93 G95 G101 G122 G113:G115 G120 G107:G110 G124 G126:G127</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>List!$D$3:$D$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>G111:G112 G139:G141</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4240,15 +4270,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>List!$D$3:$D$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>G109:G110 G137:G139</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>List!$H$2:$H$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B175</xm:sqref>
+          <xm:sqref>B2:B177</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4509,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,6 +4649,12 @@
       <c r="F6" s="18" t="s">
         <v>252</v>
       </c>
+      <c r="H6" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -4650,7 +4680,9 @@
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="31" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">

--- a/_Story/Story.xlsx
+++ b/_Story/Story.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="273">
   <si>
     <t>Center</t>
   </si>
@@ -838,6 +838,9 @@
   </si>
   <si>
     <t>Даёт доступ к книге подсказке</t>
+  </si>
+  <si>
+    <t>SplitScreen</t>
   </si>
 </sst>
 </file>
@@ -1845,10 +1848,10 @@
   <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,12 +1982,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>272</v>
+      </c>
       <c r="C7" s="32" t="s">
         <v>270</v>
       </c>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="D8" s="18" t="s">
         <v>2</v>
       </c>
@@ -4248,13 +4257,13 @@
           <x14:formula1>
             <xm:f>List!$D$5:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>G128:G138 G121 G123 G125 G116:G119 G96:G100 G102:G106 G94 G92 G4:G90</xm:sqref>
+          <xm:sqref>G128:G138 G121 G123 G125 G116:G119 G96:G100 G102:G106 G94 G92 G14:G90 G4:G6 G8:G11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$D$3:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 G91 G93 G95 G101 G122 G113:G115 G120 G107:G110 G124 G126:G127</xm:sqref>
+          <xm:sqref>G2:G3 G91 G93 G95 G101 G122 G113:G115 G120 G107:G110 G124 G126:G127 G7 G13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4534,7 +4543,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4669,6 +4678,9 @@
       <c r="F7" s="18" t="s">
         <v>253</v>
       </c>
+      <c r="H7" s="19" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
